--- a/info_user.xlsx
+++ b/info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="282">
   <si>
     <t>id_order</t>
   </si>
@@ -797,6 +797,69 @@
   </si>
   <si>
     <t>7777045751</t>
+  </si>
+  <si>
+    <t>Ельчибекова Анастасия</t>
+  </si>
+  <si>
+    <t>7019444446</t>
+  </si>
+  <si>
+    <t>NOW D-3 5000 IU капсулы 120 шт</t>
+  </si>
+  <si>
+    <t>SAN84006</t>
+  </si>
+  <si>
+    <t>4 500 ₸</t>
+  </si>
+  <si>
+    <t>Есиркегенова Гулнур</t>
+  </si>
+  <si>
+    <t>7718928856</t>
+  </si>
+  <si>
+    <t>7 279 ₸</t>
+  </si>
+  <si>
+    <t>Сәрсенбек Аружан</t>
+  </si>
+  <si>
+    <t>7078106524</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Hydrolyzed Collagen Vitamin C 250 таблеток</t>
+  </si>
+  <si>
+    <t>SAN9881</t>
+  </si>
+  <si>
+    <t>12 231 ₸</t>
+  </si>
+  <si>
+    <t>Кузнецова Оксана</t>
+  </si>
+  <si>
+    <t>7773612548</t>
+  </si>
+  <si>
+    <t>9 554 ₸</t>
+  </si>
+  <si>
+    <t>Сопбекова Асель</t>
+  </si>
+  <si>
+    <t>7019934374</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Vitamin D-3 125 mcg (5000 IU) 90 капсул</t>
+  </si>
+  <si>
+    <t>100505318_4725004</t>
+  </si>
+  <si>
+    <t>19 309 ₸</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2848,6 +2911,136 @@
         <v>14</v>
       </c>
     </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2">
+        <v>244186265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2">
+        <v>244189793</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2">
+        <v>244195838</v>
+      </c>
+      <c r="B67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2">
+        <v>244163845</v>
+      </c>
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2">
+        <v>244157262</v>
+      </c>
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_user.xlsx
+++ b/info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="1652">
   <si>
     <t>id_order</t>
   </si>
@@ -4949,6 +4949,27 @@
   </si>
   <si>
     <t>Алматы, улица Ладыгина, 34</t>
+  </si>
+  <si>
+    <t>Аяпбергенова Айжан</t>
+  </si>
+  <si>
+    <t>7075647718</t>
+  </si>
+  <si>
+    <t>Илаубекова Алуа</t>
+  </si>
+  <si>
+    <t>7052779586</t>
+  </si>
+  <si>
+    <t>6 489 ₸</t>
+  </si>
+  <si>
+    <t>Калимуллина Зульфия</t>
+  </si>
+  <si>
+    <t>7017492546</t>
   </si>
 </sst>
 </file>
@@ -5323,7 +5344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16256,6 +16277,84 @@
         <v>1572</v>
       </c>
     </row>
+    <row r="421" spans="1:8">
+      <c r="A421" s="2">
+        <v>243469235</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D421" t="s">
+        <v>147</v>
+      </c>
+      <c r="E421" t="s">
+        <v>59</v>
+      </c>
+      <c r="F421" t="s">
+        <v>148</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="H421" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" s="2">
+        <v>244594907</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D422" t="s">
+        <v>118</v>
+      </c>
+      <c r="E422" t="s">
+        <v>59</v>
+      </c>
+      <c r="F422" t="s">
+        <v>119</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H422" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" s="2">
+        <v>244429562</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D423" t="s">
+        <v>47</v>
+      </c>
+      <c r="E423" t="s">
+        <v>59</v>
+      </c>
+      <c r="F423" t="s">
+        <v>49</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H423" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_user.xlsx
+++ b/info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1654">
   <si>
     <t>id_order</t>
   </si>
@@ -4970,6 +4970,12 @@
   </si>
   <si>
     <t>7017492546</t>
+  </si>
+  <si>
+    <t>Бисенова Ботагөз</t>
+  </si>
+  <si>
+    <t>7479822878</t>
   </si>
 </sst>
 </file>
@@ -5344,7 +5350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:H424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16355,6 +16361,32 @@
         <v>62</v>
       </c>
     </row>
+    <row r="424" spans="1:8">
+      <c r="A424" s="2">
+        <v>244440270</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D424" t="s">
+        <v>47</v>
+      </c>
+      <c r="E424" t="s">
+        <v>59</v>
+      </c>
+      <c r="F424" t="s">
+        <v>49</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H424" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_user.xlsx
+++ b/info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="2443">
   <si>
     <t>id_order</t>
   </si>
@@ -4976,6 +4976,2373 @@
   </si>
   <si>
     <t>7479822878</t>
+  </si>
+  <si>
+    <t>Амантұров Рахат</t>
+  </si>
+  <si>
+    <t>7010142001</t>
+  </si>
+  <si>
+    <t>NOW витамин Vitamin D-3 10 000 IU 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN9878</t>
+  </si>
+  <si>
+    <t>6 490 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Байзакова, 312, 95</t>
+  </si>
+  <si>
+    <t>Sharifov Mehrobjon</t>
+  </si>
+  <si>
+    <t>7077289947</t>
+  </si>
+  <si>
+    <t>Алматы, улица Розыбакиева, 248, 25</t>
+  </si>
+  <si>
+    <t>Хамраева Зарина</t>
+  </si>
+  <si>
+    <t>7005445722</t>
+  </si>
+  <si>
+    <t>7 201 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жайдарман, 9А</t>
+  </si>
+  <si>
+    <t>Исенова Айгуль</t>
+  </si>
+  <si>
+    <t>7017225224</t>
+  </si>
+  <si>
+    <t>14 807 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Звёздная улица, 46</t>
+  </si>
+  <si>
+    <t>Абишева Аясын</t>
+  </si>
+  <si>
+    <t>7014040961</t>
+  </si>
+  <si>
+    <t>6 492 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 109/6, 13 блок, 11 этаж, 42 квартира</t>
+  </si>
+  <si>
+    <t>Тощева Илона</t>
+  </si>
+  <si>
+    <t>7778835088</t>
+  </si>
+  <si>
+    <t>20 681 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Володарского, 40А</t>
+  </si>
+  <si>
+    <t>Нам Лилия</t>
+  </si>
+  <si>
+    <t>7021702770</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шекспира, 46</t>
+  </si>
+  <si>
+    <t>Боталова Дина</t>
+  </si>
+  <si>
+    <t>7059007085</t>
+  </si>
+  <si>
+    <t>5 500 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица ПК Кунаева, 37</t>
+  </si>
+  <si>
+    <t>Эсмурзиева Аза</t>
+  </si>
+  <si>
+    <t>7472949806</t>
+  </si>
+  <si>
+    <t>Алматы, Гурьевская улица, 8</t>
+  </si>
+  <si>
+    <t>Бахбергенова Айжан</t>
+  </si>
+  <si>
+    <t>7755353539</t>
+  </si>
+  <si>
+    <t>9 664 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Думан-1, улица Тарбагатай, 29</t>
+  </si>
+  <si>
+    <t>Алексанина Елена</t>
+  </si>
+  <si>
+    <t>7028970703</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Рыскулова, 72А, Бутик N4</t>
+  </si>
+  <si>
+    <t>Әлміш Жадыра</t>
+  </si>
+  <si>
+    <t>7477773730</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шерхана Муртазы, 66</t>
+  </si>
+  <si>
+    <t>Хасенова Камила</t>
+  </si>
+  <si>
+    <t>7089178777</t>
+  </si>
+  <si>
+    <t>Алматы, Жетысуская улица, 4, 20</t>
+  </si>
+  <si>
+    <t>Усенова Зарина</t>
+  </si>
+  <si>
+    <t>7079700500</t>
+  </si>
+  <si>
+    <t>11 982 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Казыбек Би, 20</t>
+  </si>
+  <si>
+    <t>Амин Абдулла</t>
+  </si>
+  <si>
+    <t>7715130505</t>
+  </si>
+  <si>
+    <t>7 498 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Пушкина, 80, 7</t>
+  </si>
+  <si>
+    <t>Сансызбаев Азатхан</t>
+  </si>
+  <si>
+    <t>7776983377</t>
+  </si>
+  <si>
+    <t>Алматы, улица Лазо, 6</t>
+  </si>
+  <si>
+    <t>Давлетьярова Назгуль</t>
+  </si>
+  <si>
+    <t>7477957892</t>
+  </si>
+  <si>
+    <t>11 739 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Сагадата Нурмагамбетова, 138/2, 32</t>
+  </si>
+  <si>
+    <t>Елисова Евгения</t>
+  </si>
+  <si>
+    <t>7019677736</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ислама Каримова, 40, 30</t>
+  </si>
+  <si>
+    <t>Даулетбаков Галым</t>
+  </si>
+  <si>
+    <t>7719930932</t>
+  </si>
+  <si>
+    <t>6 510 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Кок-Тобе-1, 18</t>
+  </si>
+  <si>
+    <t>Нарегеева Эльмира</t>
+  </si>
+  <si>
+    <t>7028179718</t>
+  </si>
+  <si>
+    <t>7 560 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Зердели, 1/26, 4</t>
+  </si>
+  <si>
+    <t>Alisova Margarita</t>
+  </si>
+  <si>
+    <t>7075450295</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 20/5, 24</t>
+  </si>
+  <si>
+    <t>Ибжарова Арайлым</t>
+  </si>
+  <si>
+    <t>7017111376</t>
+  </si>
+  <si>
+    <t>14 000 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Керемет, 7к27, 379</t>
+  </si>
+  <si>
+    <t>Саду Жазира</t>
+  </si>
+  <si>
+    <t>7029731155</t>
+  </si>
+  <si>
+    <t>7 885 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Зердели, 59, 14квартира, 4 этаж</t>
+  </si>
+  <si>
+    <t>Smetanin Egor</t>
+  </si>
+  <si>
+    <t>7789940435</t>
+  </si>
+  <si>
+    <t>14 401 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, бульвар Бухар Жырау, 27/5, 138</t>
+  </si>
+  <si>
+    <t>Наурызбаева Айнур</t>
+  </si>
+  <si>
+    <t>7783232111</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Нуркент, 5к10, 150</t>
+  </si>
+  <si>
+    <t>Мадениет Райхан</t>
+  </si>
+  <si>
+    <t>7054157270</t>
+  </si>
+  <si>
+    <t>14 488 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Макатаева, 131к8, 46</t>
+  </si>
+  <si>
+    <t>Григорян Наталья</t>
+  </si>
+  <si>
+    <t>7078244342</t>
+  </si>
+  <si>
+    <t>Fairhaven Health витамин Myo-Inositol 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN01</t>
+  </si>
+  <si>
+    <t>17 199 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Исаева, 55, 68</t>
+  </si>
+  <si>
+    <t>Андреева Наталья</t>
+  </si>
+  <si>
+    <t>7075551425</t>
+  </si>
+  <si>
+    <t>8 762 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Аксай-3Б, 10, 1</t>
+  </si>
+  <si>
+    <t>Қабдыбек Дидар</t>
+  </si>
+  <si>
+    <t>7473037638</t>
+  </si>
+  <si>
+    <t>Алматы, улица Досмухамедова, 15</t>
+  </si>
+  <si>
+    <t>Аманова Сабина</t>
+  </si>
+  <si>
+    <t>7477720433</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Сайран, 8, 1 Квартира</t>
+  </si>
+  <si>
+    <t>Тухтамова Наргиза</t>
+  </si>
+  <si>
+    <t>7029786458</t>
+  </si>
+  <si>
+    <t>Nature's Plus витамин Source of Life Animal Parade Vitamin C 90 таблеток</t>
+  </si>
+  <si>
+    <t>SAN939660</t>
+  </si>
+  <si>
+    <t>6 543 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, 1-й микрорайон, 57, 27</t>
+  </si>
+  <si>
+    <t>Маренков Александр</t>
+  </si>
+  <si>
+    <t>7019290921</t>
+  </si>
+  <si>
+    <t>NOW омега жирные кислоты Ultra Omega-3 капсулы 180 шт</t>
+  </si>
+  <si>
+    <t>SAN83996</t>
+  </si>
+  <si>
+    <t>16 899 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Брусиловского, 167блок5, 1340</t>
+  </si>
+  <si>
+    <t>Алиакбарова Амина</t>
+  </si>
+  <si>
+    <t>7789175554</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 68, Академия ШАГ, 2 этаж</t>
+  </si>
+  <si>
+    <t>Айбек Ақбұлан</t>
+  </si>
+  <si>
+    <t>7082000315</t>
+  </si>
+  <si>
+    <t>Алматы, 4-й микрорайон, 10, 19</t>
+  </si>
+  <si>
+    <t>Санбаева Алуа</t>
+  </si>
+  <si>
+    <t>7072882800</t>
+  </si>
+  <si>
+    <t>Алматы, улица Прокофьева, 144, 198, 17 этаж</t>
+  </si>
+  <si>
+    <t>Салкенова Айым</t>
+  </si>
+  <si>
+    <t>7769659966</t>
+  </si>
+  <si>
+    <t>9 699 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Жетысу-1, 28, 22</t>
+  </si>
+  <si>
+    <t>Балабаева Дана</t>
+  </si>
+  <si>
+    <t>7025714843</t>
+  </si>
+  <si>
+    <t>21 278 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Жетысу-1, 52, 24</t>
+  </si>
+  <si>
+    <t>Prikhodko Maksim</t>
+  </si>
+  <si>
+    <t>7781136862</t>
+  </si>
+  <si>
+    <t>10 800 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Солодовникова, 21Д, 111</t>
+  </si>
+  <si>
+    <t>Чернышов Максим</t>
+  </si>
+  <si>
+    <t>7071880707</t>
+  </si>
+  <si>
+    <t>14 994 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, коттеджный городок Достык, 131</t>
+  </si>
+  <si>
+    <t>Balbin Sergei</t>
+  </si>
+  <si>
+    <t>7058635023</t>
+  </si>
+  <si>
+    <t>13 966 ₸</t>
+  </si>
+  <si>
+    <t>Адебиет Сымбат</t>
+  </si>
+  <si>
+    <t>7006525621</t>
+  </si>
+  <si>
+    <t>13 485 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Шугыла, 340/4</t>
+  </si>
+  <si>
+    <t>Grigoreva Elena</t>
+  </si>
+  <si>
+    <t>7770815132</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ходжанова, 77/5к2, 31А</t>
+  </si>
+  <si>
+    <t>Досжанова Асель</t>
+  </si>
+  <si>
+    <t>7017010807</t>
+  </si>
+  <si>
+    <t>Алматы, улица Маулена Балакаева, 50А</t>
+  </si>
+  <si>
+    <t>Ушанов Виталий</t>
+  </si>
+  <si>
+    <t>7017180417</t>
+  </si>
+  <si>
+    <t>NOW Calcium Magnesium Higth Potency таблетки 250 шт</t>
+  </si>
+  <si>
+    <t>100801353_4725004</t>
+  </si>
+  <si>
+    <t>14 191 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Центральная улица, 20</t>
+  </si>
+  <si>
+    <t>Сағымбай Арман</t>
+  </si>
+  <si>
+    <t>7017372052</t>
+  </si>
+  <si>
+    <t>NutriBiotic Sodium Ascorbate порошок 454 мл</t>
+  </si>
+  <si>
+    <t>SAN84002</t>
+  </si>
+  <si>
+    <t>11 816 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Тажиева, 130</t>
+  </si>
+  <si>
+    <t>Джуманова Алевтина</t>
+  </si>
+  <si>
+    <t>7017704695</t>
+  </si>
+  <si>
+    <t>8 877 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Омаровой, 37, 119</t>
+  </si>
+  <si>
+    <t>Юст Елизавета</t>
+  </si>
+  <si>
+    <t>7776432282</t>
+  </si>
+  <si>
+    <t>17 498 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Шабыт, 3</t>
+  </si>
+  <si>
+    <t>Сеймаханова Алия</t>
+  </si>
+  <si>
+    <t>7770941177</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-2, 17А, 29</t>
+  </si>
+  <si>
+    <t>Мұқан Жұлдыз</t>
+  </si>
+  <si>
+    <t>7071094926</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-1, 20, 54</t>
+  </si>
+  <si>
+    <t>Ким Владлен</t>
+  </si>
+  <si>
+    <t>7775218845</t>
+  </si>
+  <si>
+    <t>Solgar Skin Nails &amp; Hair Advanced Msm Formula таблетки 120 шт</t>
+  </si>
+  <si>
+    <t>SAN939766</t>
+  </si>
+  <si>
+    <t>17 846 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Розыбакиева, 320</t>
+  </si>
+  <si>
+    <t>Мектепбаева Венера</t>
+  </si>
+  <si>
+    <t>7025959288</t>
+  </si>
+  <si>
+    <t>14 549 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Абиша Кекильбайулы, 97A, 221</t>
+  </si>
+  <si>
+    <t>Күмісбек Аймаш</t>
+  </si>
+  <si>
+    <t>7071177728</t>
+  </si>
+  <si>
+    <t>Nature's Plus витамин Source of Life Animal Parade D3 500 МЕ 90 капсул</t>
+  </si>
+  <si>
+    <t>SAN83981</t>
+  </si>
+  <si>
+    <t>6 000 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, жилой комплекс Мадениет, 834/31, 24</t>
+  </si>
+  <si>
+    <t>Нуржалова Гульшат</t>
+  </si>
+  <si>
+    <t>7011337446</t>
+  </si>
+  <si>
+    <t>6 985 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Жас Канат, 1/30, 6</t>
+  </si>
+  <si>
+    <t>Әмит Жұлдыз</t>
+  </si>
+  <si>
+    <t>7477005497</t>
+  </si>
+  <si>
+    <t>6 516 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Каракумская улица, 4, 27</t>
+  </si>
+  <si>
+    <t>Денисов Кирилл</t>
+  </si>
+  <si>
+    <t>7085340504</t>
+  </si>
+  <si>
+    <t>10 297 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Сельская улица, 27Я</t>
+  </si>
+  <si>
+    <t>Багадаева Дана</t>
+  </si>
+  <si>
+    <t>7015755588</t>
+  </si>
+  <si>
+    <t>Алматы, улица Чайковского, 22А, 11</t>
+  </si>
+  <si>
+    <t>Смаил Дана</t>
+  </si>
+  <si>
+    <t>7013813761</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Сакена Сейфуллина, 521, 6-этаж, 618 кабинет</t>
+  </si>
+  <si>
+    <t>Ахметова Дилара</t>
+  </si>
+  <si>
+    <t>7780951315</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абылай Хана, 92, Queen bee салон</t>
+  </si>
+  <si>
+    <t>Сердюков Владимир</t>
+  </si>
+  <si>
+    <t>7059513363</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Сакена Сейфуллина, 597, 605</t>
+  </si>
+  <si>
+    <t>Litvinova Veronika</t>
+  </si>
+  <si>
+    <t>7712533569</t>
+  </si>
+  <si>
+    <t>Doctor's Best Alpha-Lipoic Acid 600 mg №60 капсул</t>
+  </si>
+  <si>
+    <t>SAN84036</t>
+  </si>
+  <si>
+    <t>9 850 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жамакаева, 254/2блокК3, 3A</t>
+  </si>
+  <si>
+    <t>Оспанов Жасулан</t>
+  </si>
+  <si>
+    <t>7017850611</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 120/48, Офис 'Импала', 3 этаж.</t>
+  </si>
+  <si>
+    <t>Байкенже Бауыржан</t>
+  </si>
+  <si>
+    <t>7071117305</t>
+  </si>
+  <si>
+    <t>Алматы, улица Байганина, 20, 4</t>
+  </si>
+  <si>
+    <t>Grigoreva Alena</t>
+  </si>
+  <si>
+    <t>7059849537</t>
+  </si>
+  <si>
+    <t>7 578 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Гагарина, 133/8, 47</t>
+  </si>
+  <si>
+    <t>Дилдаханов Максат</t>
+  </si>
+  <si>
+    <t>7074409042</t>
+  </si>
+  <si>
+    <t>8 594 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, 20-я линия, 44, Подъезд 4, кВ 73</t>
+  </si>
+  <si>
+    <t>Жақсылық Ақбота</t>
+  </si>
+  <si>
+    <t>7079970703</t>
+  </si>
+  <si>
+    <t>Алматы, улица Масанчи, 23/10, 33</t>
+  </si>
+  <si>
+    <t>Чубай Рената</t>
+  </si>
+  <si>
+    <t>7007776608</t>
+  </si>
+  <si>
+    <t>8 772 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Брусиловского, 163, Блок 19/1, кв 245,этаж 12.</t>
+  </si>
+  <si>
+    <t>Дементьева Мария</t>
+  </si>
+  <si>
+    <t>7476032235</t>
+  </si>
+  <si>
+    <t>6 965 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Саина, 28, 10</t>
+  </si>
+  <si>
+    <t>Әбілдаев Абдулазиз</t>
+  </si>
+  <si>
+    <t>7072072266</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Акбулак, улица Мукаева, 12</t>
+  </si>
+  <si>
+    <t>Жетписбаев Жандос</t>
+  </si>
+  <si>
+    <t>7475107720</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Дарабоз, 77, Квартира 6, 2 этаж</t>
+  </si>
+  <si>
+    <t>Момынқұл Әміре</t>
+  </si>
+  <si>
+    <t>7064151794</t>
+  </si>
+  <si>
+    <t>11 991 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Шугыла, 342к5, 60</t>
+  </si>
+  <si>
+    <t>Оңалбай Айгерім</t>
+  </si>
+  <si>
+    <t>7077980203</t>
+  </si>
+  <si>
+    <t>7 510 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Шугыла, 340/4к4, кв 28</t>
+  </si>
+  <si>
+    <t>Қабылбек Құштар</t>
+  </si>
+  <si>
+    <t>7007190007</t>
+  </si>
+  <si>
+    <t>9 674 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Акжар, улица Береке, 1/6</t>
+  </si>
+  <si>
+    <t>Абдрашитова Гульзара</t>
+  </si>
+  <si>
+    <t>7472129707</t>
+  </si>
+  <si>
+    <t>12 830 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-4, 28, 21</t>
+  </si>
+  <si>
+    <t>Вебер Юлия</t>
+  </si>
+  <si>
+    <t>7021717174</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жандосова, 140/1, 38</t>
+  </si>
+  <si>
+    <t>Салипбаева Алина</t>
+  </si>
+  <si>
+    <t>7082914259</t>
+  </si>
+  <si>
+    <t>13 600 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, жилой комплекс Солнечная долина, 157/9, 536</t>
+  </si>
+  <si>
+    <t>Байназар Жансая</t>
+  </si>
+  <si>
+    <t>7005259808</t>
+  </si>
+  <si>
+    <t>Алматы, 6-й микрорайон, 10А, 12</t>
+  </si>
+  <si>
+    <t>Сейтжанова Токжан</t>
+  </si>
+  <si>
+    <t>7018881271</t>
+  </si>
+  <si>
+    <t>4 842 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 77/7, Esentai Tower</t>
+  </si>
+  <si>
+    <t>Садуова Жанайым</t>
+  </si>
+  <si>
+    <t>7475253697</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Таугуль-3, улица Мадины Ералиевой, 16</t>
+  </si>
+  <si>
+    <t>Сулейменова Коркем</t>
+  </si>
+  <si>
+    <t>7059996699</t>
+  </si>
+  <si>
+    <t>7 611 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жамбыла, 155к1, 37</t>
+  </si>
+  <si>
+    <t>Молдасаметова Мадина</t>
+  </si>
+  <si>
+    <t>7021205721</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 109В, Халык здание</t>
+  </si>
+  <si>
+    <t>Кременцов Сергей</t>
+  </si>
+  <si>
+    <t>7772246212</t>
+  </si>
+  <si>
+    <t>NOW омега жирные кислоты Ultra Omega 3-D 180 капсул</t>
+  </si>
+  <si>
+    <t>SAN24</t>
+  </si>
+  <si>
+    <t>25 694 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Курмангазы, 173, Кв.61, подъезд 6</t>
+  </si>
+  <si>
+    <t>Кенжеғұл Жанар</t>
+  </si>
+  <si>
+    <t>7017669581</t>
+  </si>
+  <si>
+    <t>15 899 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Жетысу-3, 24</t>
+  </si>
+  <si>
+    <t>Абдукаримова Зульфия</t>
+  </si>
+  <si>
+    <t>7478440688</t>
+  </si>
+  <si>
+    <t>13 010 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Садвакасова, 196</t>
+  </si>
+  <si>
+    <t>Баймурунова Алина</t>
+  </si>
+  <si>
+    <t>7051829115</t>
+  </si>
+  <si>
+    <t>Nature's Way БАД Womens Ultra Potency Alive 60 таблеток</t>
+  </si>
+  <si>
+    <t>101517717_4725004</t>
+  </si>
+  <si>
+    <t>30 904 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Атамекен, 9</t>
+  </si>
+  <si>
+    <t>Дәулет Камила</t>
+  </si>
+  <si>
+    <t>7789711888</t>
+  </si>
+  <si>
+    <t>9 789 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Кооператор, 130, Частный дом</t>
+  </si>
+  <si>
+    <t>Потякова Вероника</t>
+  </si>
+  <si>
+    <t>7071191920</t>
+  </si>
+  <si>
+    <t>17 866 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Гагарина, 286/1, 23</t>
+  </si>
+  <si>
+    <t>Shabaev Pavel</t>
+  </si>
+  <si>
+    <t>7058046244</t>
+  </si>
+  <si>
+    <t>Алматы, улица Навои, 210/3, 100</t>
+  </si>
+  <si>
+    <t>Stepanishcheva Ekaterina</t>
+  </si>
+  <si>
+    <t>7058269255</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Гагарина, 244, 86</t>
+  </si>
+  <si>
+    <t>Тайчикенова Амина</t>
+  </si>
+  <si>
+    <t>7776544329</t>
+  </si>
+  <si>
+    <t>9 797 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Радостовца, 271, 50</t>
+  </si>
+  <si>
+    <t>Ибрагимова Мехрибанум</t>
+  </si>
+  <si>
+    <t>7017722686</t>
+  </si>
+  <si>
+    <t>NOW Daily Vits таблетки 100 шт</t>
+  </si>
+  <si>
+    <t>104521710_4725004</t>
+  </si>
+  <si>
+    <t>10 378 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Хетагурова, 58</t>
+  </si>
+  <si>
+    <t>Камытбаева Айгерим</t>
+  </si>
+  <si>
+    <t>7478392230</t>
+  </si>
+  <si>
+    <t>Алматы, улица Зубарева, 10, 8</t>
+  </si>
+  <si>
+    <t>Нурахунова Сатирям</t>
+  </si>
+  <si>
+    <t>7772033388</t>
+  </si>
+  <si>
+    <t>Алматы, улица Навои, 72, 65</t>
+  </si>
+  <si>
+    <t>Бекбосынова Ботагоз</t>
+  </si>
+  <si>
+    <t>7753177759</t>
+  </si>
+  <si>
+    <t>9 200 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Егизбаева, 7/2, 75</t>
+  </si>
+  <si>
+    <t>Митрофанов Вячеслав</t>
+  </si>
+  <si>
+    <t>7074232222</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Women's 50+ Gummy Вкус фруктов 60 таблеток</t>
+  </si>
+  <si>
+    <t>104074344_4725004</t>
+  </si>
+  <si>
+    <t>13 949 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Камар Сулу, 8</t>
+  </si>
+  <si>
+    <t>Solovev Igor</t>
+  </si>
+  <si>
+    <t>7013456351</t>
+  </si>
+  <si>
+    <t>14 947 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Райымбека, 173</t>
+  </si>
+  <si>
+    <t>Полевой Константин</t>
+  </si>
+  <si>
+    <t>7073569035</t>
+  </si>
+  <si>
+    <t>7 899 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шемякина, 4</t>
+  </si>
+  <si>
+    <t>Толстикова Виктория</t>
+  </si>
+  <si>
+    <t>7471219399</t>
+  </si>
+  <si>
+    <t>Life Extension Витамин D3 125 мкг 5000 МЕ №60</t>
+  </si>
+  <si>
+    <t>101889140_4725004</t>
+  </si>
+  <si>
+    <t>Алматы, улица Кассина, 133</t>
+  </si>
+  <si>
+    <t>Рамбаева Айкоркем</t>
+  </si>
+  <si>
+    <t>7021876562</t>
+  </si>
+  <si>
+    <t>11 865 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, жилой комплекс Северное Кольцо, 92/3к6, 5 кв</t>
+  </si>
+  <si>
+    <t>Сайлауов Бақдәулет</t>
+  </si>
+  <si>
+    <t>7001643525</t>
+  </si>
+  <si>
+    <t>14 200 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Улжан-1, улица Егинсу, 6</t>
+  </si>
+  <si>
+    <t>Еркін Назгүл</t>
+  </si>
+  <si>
+    <t>7071447754</t>
+  </si>
+  <si>
+    <t>12 377 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Аркалык, 47, 12</t>
+  </si>
+  <si>
+    <t>Бакембаева Галия</t>
+  </si>
+  <si>
+    <t>7007201992</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Айгерим-2, улица Текес, 16</t>
+  </si>
+  <si>
+    <t>Кокишова Гулмира</t>
+  </si>
+  <si>
+    <t>7473786004</t>
+  </si>
+  <si>
+    <t>23 790 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Айгерим-2, улица Акатаева, 69/1, 11</t>
+  </si>
+  <si>
+    <t>Алимтаев Кудайберген</t>
+  </si>
+  <si>
+    <t>7473255245</t>
+  </si>
+  <si>
+    <t>9 799 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Саина, 20/1, 48</t>
+  </si>
+  <si>
+    <t>Азатов Аркен</t>
+  </si>
+  <si>
+    <t>7078088499</t>
+  </si>
+  <si>
+    <t>Алматы, улица Афцинао, 2, 25</t>
+  </si>
+  <si>
+    <t>Медельханова Айман</t>
+  </si>
+  <si>
+    <t>7785270418</t>
+  </si>
+  <si>
+    <t>5 949 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Мирас, 31блок1, 7</t>
+  </si>
+  <si>
+    <t>Байширова Марал</t>
+  </si>
+  <si>
+    <t>7759819722</t>
+  </si>
+  <si>
+    <t>7 000 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-2, 24, 28</t>
+  </si>
+  <si>
+    <t>Девликамов Ибрам</t>
+  </si>
+  <si>
+    <t>7752889720</t>
+  </si>
+  <si>
+    <t>11 879 ₸</t>
+  </si>
+  <si>
+    <t>Жамирова Динара</t>
+  </si>
+  <si>
+    <t>7769884875</t>
+  </si>
+  <si>
+    <t>14 029 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Катаева, 98, 64</t>
+  </si>
+  <si>
+    <t>Валов Валерий</t>
+  </si>
+  <si>
+    <t>7017469502</t>
+  </si>
+  <si>
+    <t>NOW Melatonin 3 mg 180 капсул</t>
+  </si>
+  <si>
+    <t>SAN0939516</t>
+  </si>
+  <si>
+    <t>6 848 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Манаса, 58</t>
+  </si>
+  <si>
+    <t>Dolmatov Kirill</t>
+  </si>
+  <si>
+    <t>7076779024</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Кок-Тобе, Мангистауская улица, 24</t>
+  </si>
+  <si>
+    <t>Турсунов Талгат</t>
+  </si>
+  <si>
+    <t>7017230171</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Vitamin D3 90 капсул</t>
+  </si>
+  <si>
+    <t>102070723_4725004</t>
+  </si>
+  <si>
+    <t>8 768 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, жилой комплекс Солнечная долина, 157/3, 301</t>
+  </si>
+  <si>
+    <t>Stashkov Viktor</t>
+  </si>
+  <si>
+    <t>7059641565</t>
+  </si>
+  <si>
+    <t>Алматы, улица Карасай Батыра, 206, 51</t>
+  </si>
+  <si>
+    <t>Грибанова Анастасия</t>
+  </si>
+  <si>
+    <t>7007400252</t>
+  </si>
+  <si>
+    <t>Алматы, улица Айманова, 140блокБ1, 40</t>
+  </si>
+  <si>
+    <t>Жаңабек Мәди</t>
+  </si>
+  <si>
+    <t>7475266543</t>
+  </si>
+  <si>
+    <t>NOW рыбий жир Ultra Omega-3 90 капсул</t>
+  </si>
+  <si>
+    <t>SAN84026</t>
+  </si>
+  <si>
+    <t>10 750 ₸</t>
+  </si>
+  <si>
+    <t>Сон Кристина</t>
+  </si>
+  <si>
+    <t>7011669490</t>
+  </si>
+  <si>
+    <t>Жидкий йод плюс раствор 59 мл</t>
+  </si>
+  <si>
+    <t>101135465_4725004</t>
+  </si>
+  <si>
+    <t>9 400 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Мынбаева, 67, 8</t>
+  </si>
+  <si>
+    <t>Кириченко Татьяна</t>
+  </si>
+  <si>
+    <t>7087061610</t>
+  </si>
+  <si>
+    <t>16 499 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, 1-й микрорайон, 12, 42</t>
+  </si>
+  <si>
+    <t>Керимкулова Бибинур</t>
+  </si>
+  <si>
+    <t>7019808833</t>
+  </si>
+  <si>
+    <t>7 117 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Наурызбай Батыра, 154А</t>
+  </si>
+  <si>
+    <t>Оспан Ақмаржан</t>
+  </si>
+  <si>
+    <t>7088458078</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шевченко, 95</t>
+  </si>
+  <si>
+    <t>Хасанова Мадина</t>
+  </si>
+  <si>
+    <t>7022870004</t>
+  </si>
+  <si>
+    <t>17 500 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Ангарская улица, 87</t>
+  </si>
+  <si>
+    <t>Абдықұл Дана</t>
+  </si>
+  <si>
+    <t>7079771917</t>
+  </si>
+  <si>
+    <t>Алматы, 12-й микрорайон, 26, 2</t>
+  </si>
+  <si>
+    <t>Бадалова Фируза</t>
+  </si>
+  <si>
+    <t>7075708503</t>
+  </si>
+  <si>
+    <t>Алматы, 9-й микрорайон, 19, 46</t>
+  </si>
+  <si>
+    <t>Канаева Жанар</t>
+  </si>
+  <si>
+    <t>7089698528</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ер Тостык, 3к2, 14</t>
+  </si>
+  <si>
+    <t>Нусупбаева Эльмира</t>
+  </si>
+  <si>
+    <t>7018882356</t>
+  </si>
+  <si>
+    <t>NOW Standardized Extract Ashwagandha 450 мг капсулы 90 шт</t>
+  </si>
+  <si>
+    <t>100501349_4725004</t>
+  </si>
+  <si>
+    <t>9 999 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Кенесары Хана, 54/45, 2</t>
+  </si>
+  <si>
+    <t>Ушурова Мариям</t>
+  </si>
+  <si>
+    <t>7055071170</t>
+  </si>
+  <si>
+    <t>8 525 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Курмангазы, 177А, 16</t>
+  </si>
+  <si>
+    <t>Кичикахунова Ирина</t>
+  </si>
+  <si>
+    <t>7002164727</t>
+  </si>
+  <si>
+    <t>14 379 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-1, 7, Кв 5, (домофон 25)</t>
+  </si>
+  <si>
+    <t>Zalesskaia Iana</t>
+  </si>
+  <si>
+    <t>7771197470</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Buffered Gold C 750 mg 60 капсул</t>
+  </si>
+  <si>
+    <t>SAN83935</t>
+  </si>
+  <si>
+    <t>3 789 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-1, 32, 64</t>
+  </si>
+  <si>
+    <t>Хасанова Назугум</t>
+  </si>
+  <si>
+    <t>7052625012</t>
+  </si>
+  <si>
+    <t>14 951 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Думан-1, Бригадная улица, 7</t>
+  </si>
+  <si>
+    <t>Аятбекова Гульшат</t>
+  </si>
+  <si>
+    <t>7078324795</t>
+  </si>
+  <si>
+    <t>7 084 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Мадениет, 834/32к1, 27</t>
+  </si>
+  <si>
+    <t>Ким Светлана</t>
+  </si>
+  <si>
+    <t>7089787503</t>
+  </si>
+  <si>
+    <t>Алматы, улица Невского, 5, 23</t>
+  </si>
+  <si>
+    <t>Молдаханова Алия</t>
+  </si>
+  <si>
+    <t>7019590596</t>
+  </si>
+  <si>
+    <t>10 426 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 21/3, 219</t>
+  </si>
+  <si>
+    <t>Giliazova Aida</t>
+  </si>
+  <si>
+    <t>7770847200</t>
+  </si>
+  <si>
+    <t>9 449 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Кажымукана, 59, 85</t>
+  </si>
+  <si>
+    <t>Сарсенбаева Алия</t>
+  </si>
+  <si>
+    <t>7074545610</t>
+  </si>
+  <si>
+    <t>ChildLife Vitamin D3 раствор 30 мл</t>
+  </si>
+  <si>
+    <t>SAN9879</t>
+  </si>
+  <si>
+    <t>4 819 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шафика Чокина, 116, 45</t>
+  </si>
+  <si>
+    <t>Салгараев Еркебулан</t>
+  </si>
+  <si>
+    <t>7010334488</t>
+  </si>
+  <si>
+    <t>Алматы, улица Богенбай Батыра, 142</t>
+  </si>
+  <si>
+    <t>Абеусадыкова Алтынай</t>
+  </si>
+  <si>
+    <t>7017596139</t>
+  </si>
+  <si>
+    <t>NOW БАД Certified Organic Spirulina 500 мг 200 таблеток</t>
+  </si>
+  <si>
+    <t>104326738_4725004</t>
+  </si>
+  <si>
+    <t>7 949 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Калдаякова, 89, 16</t>
+  </si>
+  <si>
+    <t>Байсеитов Саят</t>
+  </si>
+  <si>
+    <t>7718462196</t>
+  </si>
+  <si>
+    <t>9 997 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Калдаякова, 34, 1</t>
+  </si>
+  <si>
+    <t>Қлышбай Гүлзат</t>
+  </si>
+  <si>
+    <t>7477456364</t>
+  </si>
+  <si>
+    <t>8 478 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Саялы, 126, 10</t>
+  </si>
+  <si>
+    <t>Тлеугабулова Айжан</t>
+  </si>
+  <si>
+    <t>7011913273</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition витамин Gold C Vitamin C 1000 мг 60 капсул</t>
+  </si>
+  <si>
+    <t>100569146_4725004</t>
+  </si>
+  <si>
+    <t>5 000 ₸</t>
+  </si>
+  <si>
+    <t>Рахматуллаев Арман</t>
+  </si>
+  <si>
+    <t>7766986688</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Назарбаева, 50, 417</t>
+  </si>
+  <si>
+    <t>Лукьянова Татьяна</t>
+  </si>
+  <si>
+    <t>7772300689</t>
+  </si>
+  <si>
+    <t>9 857 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, переулок Пика, 14</t>
+  </si>
+  <si>
+    <t>Картавых Артем</t>
+  </si>
+  <si>
+    <t>7772673091</t>
+  </si>
+  <si>
+    <t>14 609 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Сакена Сейфуллина, 140Б, 5</t>
+  </si>
+  <si>
+    <t>Жекебаева Дина</t>
+  </si>
+  <si>
+    <t>7018808608</t>
+  </si>
+  <si>
+    <t>ChildLife Vitamin C раствор 118 мл</t>
+  </si>
+  <si>
+    <t>SAN939795</t>
+  </si>
+  <si>
+    <t>8 000 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Айманова, 103, 30</t>
+  </si>
+  <si>
+    <t>Абдуллаева Карина</t>
+  </si>
+  <si>
+    <t>7712536577</t>
+  </si>
+  <si>
+    <t>Облегчение газов раствор 30 мл</t>
+  </si>
+  <si>
+    <t>102894192_4725004</t>
+  </si>
+  <si>
+    <t>Алматы, улица Айша биби, 88/6</t>
+  </si>
+  <si>
+    <t>Есмаганбетова Жанара</t>
+  </si>
+  <si>
+    <t>7028882553</t>
+  </si>
+  <si>
+    <t>Алматы, улица Утеген Батыра, 17Б/3, 140</t>
+  </si>
+  <si>
+    <t>Турсумбаева Галина</t>
+  </si>
+  <si>
+    <t>7052214367</t>
+  </si>
+  <si>
+    <t>Nature's Way мультивитамины Alive! Kid's Chewable Multivitamin Orange &amp; Berry 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN83995</t>
+  </si>
+  <si>
+    <t>8 997 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Айнабулак-2, 50, 7</t>
+  </si>
+  <si>
+    <t>Турагелдиева Дария</t>
+  </si>
+  <si>
+    <t>7001303426</t>
+  </si>
+  <si>
+    <t>24 021 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Стадионная улица, 14</t>
+  </si>
+  <si>
+    <t>Башчикулова Айгерим</t>
+  </si>
+  <si>
+    <t>7015519402</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Аксай-1, 2, 6</t>
+  </si>
+  <si>
+    <t>Болысбаева Сауле</t>
+  </si>
+  <si>
+    <t>7078504530</t>
+  </si>
+  <si>
+    <t>7 129 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Калкаман, 20</t>
+  </si>
+  <si>
+    <t>Катубаева Жансая</t>
+  </si>
+  <si>
+    <t>7052824554</t>
+  </si>
+  <si>
+    <t>11 521 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Варламова, 1/3кБ, 1 подъезд, 11 эт., кв. 125</t>
+  </si>
+  <si>
+    <t>Filina Liudmila</t>
+  </si>
+  <si>
+    <t>7000976974</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 130/2, 180</t>
+  </si>
+  <si>
+    <t>Пасечник Татьяна</t>
+  </si>
+  <si>
+    <t>7714525869</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Акжар, улица Салыка Зиманова, 9А</t>
+  </si>
+  <si>
+    <t>Қаратай Алина</t>
+  </si>
+  <si>
+    <t>7474403077</t>
+  </si>
+  <si>
+    <t>17 700 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Басенова, 16/1, 19</t>
+  </si>
+  <si>
+    <t>Тогжанова Марзия</t>
+  </si>
+  <si>
+    <t>7001013945</t>
+  </si>
+  <si>
+    <t>7 126 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Алмас, 239</t>
+  </si>
+  <si>
+    <t>Bodrova Daria</t>
+  </si>
+  <si>
+    <t>7471127029</t>
+  </si>
+  <si>
+    <t>Алматы, улица Навои, 323, 4 подъезд 6 этаж квартира 167 домофон на входе в комплекс 4#167 ,на входе в подъезд-167</t>
+  </si>
+  <si>
+    <t>Тамабаева Риза</t>
+  </si>
+  <si>
+    <t>7076647078</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-4, 19, 27</t>
+  </si>
+  <si>
+    <t>Tileuzhanova Daiana</t>
+  </si>
+  <si>
+    <t>7788265141</t>
+  </si>
+  <si>
+    <t>ChildLife Echinacea &amp; Vitamin D3 раствор 30 мл</t>
+  </si>
+  <si>
+    <t>289442</t>
+  </si>
+  <si>
+    <t>12 597 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жунисова, 4/18, 4 этаж квартира 6 , код домофона 13762</t>
+  </si>
+  <si>
+    <t>Жолаушиева Самал</t>
+  </si>
+  <si>
+    <t>7026773390</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Таугуль-1, 50, 3</t>
+  </si>
+  <si>
+    <t>Fedorov Nikolai</t>
+  </si>
+  <si>
+    <t>7057682047</t>
+  </si>
+  <si>
+    <t>NOW Omega 3 180 EPA/120 DHA капсулы 100 шт</t>
+  </si>
+  <si>
+    <t>SAN939581</t>
+  </si>
+  <si>
+    <t>4 072 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Брусиловского, 249, 104 квартира, 2 этаж</t>
+  </si>
+  <si>
+    <t>Лаптев Степан</t>
+  </si>
+  <si>
+    <t>7754513993</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жандосова, 150/1, 98</t>
+  </si>
+  <si>
+    <t>Қырғызбай Назерке</t>
+  </si>
+  <si>
+    <t>7477086886</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Шанырак-2, улица Жанкожа батыра, 230</t>
+  </si>
+  <si>
+    <t>Ногаева Адина</t>
+  </si>
+  <si>
+    <t>7017138774</t>
+  </si>
+  <si>
+    <t>12 703 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Клочкова, 94, 39</t>
+  </si>
+  <si>
+    <t>Тортаев Дархан</t>
+  </si>
+  <si>
+    <t>7771006666</t>
+  </si>
+  <si>
+    <t>7 123 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Зейна Шашкина, 23, 20</t>
+  </si>
+  <si>
+    <t>Байжанова Айгерим</t>
+  </si>
+  <si>
+    <t>7015565559</t>
+  </si>
+  <si>
+    <t>Алматы, улица Арайлы, 2/12к7, 42</t>
+  </si>
+  <si>
+    <t>Andreevskaia Violetta</t>
+  </si>
+  <si>
+    <t>7714546046</t>
+  </si>
+  <si>
+    <t>7 044 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Маркова, 61/1, 89, 4 этаж</t>
+  </si>
+  <si>
+    <t>Ашикбаев Ануарбек</t>
+  </si>
+  <si>
+    <t>7081315277</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ади Шарипова, 110</t>
+  </si>
+  <si>
+    <t>Жаскен Ботагоз</t>
+  </si>
+  <si>
+    <t>7002491750</t>
+  </si>
+  <si>
+    <t>NOW витамин D3 5000 МЕ 120 таблеток</t>
+  </si>
+  <si>
+    <t>103728924_4725004</t>
+  </si>
+  <si>
+    <t>4 940 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Манаса, 7, 18</t>
+  </si>
+  <si>
+    <t>Frolov Artem</t>
+  </si>
+  <si>
+    <t>7027450443</t>
+  </si>
+  <si>
+    <t>Алматы, улица Солодовникова, 21Е, 285</t>
+  </si>
+  <si>
+    <t>Мезенцев Иван</t>
+  </si>
+  <si>
+    <t>7051524848</t>
+  </si>
+  <si>
+    <t>10 363 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Айманова, 68, 5 этаж 142</t>
+  </si>
+  <si>
+    <t>Ордатаева Ботакоз</t>
+  </si>
+  <si>
+    <t>7071011661</t>
+  </si>
+  <si>
+    <t>Алматы, улица Исаева, 28, 46</t>
+  </si>
+  <si>
+    <t>Төлендиева Ақбота</t>
+  </si>
+  <si>
+    <t>7086505170</t>
+  </si>
+  <si>
+    <t>Алматы, улица Айтеке Би, 151, 11</t>
+  </si>
+  <si>
+    <t>Мұсабекова Салтанат</t>
+  </si>
+  <si>
+    <t>7025229840</t>
+  </si>
+  <si>
+    <t>Алматы, Жетысуский район, Никопольская улица, 20</t>
+  </si>
+  <si>
+    <t>Постухова Наталья</t>
+  </si>
+  <si>
+    <t>7074889610</t>
+  </si>
+  <si>
+    <t>5 887 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шелихова, 55</t>
+  </si>
+  <si>
+    <t>Rabievskii Georgii</t>
+  </si>
+  <si>
+    <t>7072392524</t>
+  </si>
+  <si>
+    <t>Алматы, Кульджинский тракт, 16/23, 62</t>
+  </si>
+  <si>
+    <t>Зинулла Назгүл</t>
+  </si>
+  <si>
+    <t>7073120597</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Думан-2, 10, 4подьезд 59 кв 3 этаж</t>
+  </si>
+  <si>
+    <t>Амирбаева Ерке</t>
+  </si>
+  <si>
+    <t>7472040905</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Альмерек, 3-я улица, 55</t>
+  </si>
+  <si>
+    <t>Дуйсенова Айман</t>
+  </si>
+  <si>
+    <t>7072950929</t>
+  </si>
+  <si>
+    <t>Алматы, Харьковская улица, 53</t>
+  </si>
+  <si>
+    <t>Жасандықызы Марал</t>
+  </si>
+  <si>
+    <t>7011169988</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Саялы, 39, 26</t>
+  </si>
+  <si>
+    <t>Семёнкина Наталья</t>
+  </si>
+  <si>
+    <t>7071123799</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Айгерим-2, улица Алмерека, 30</t>
+  </si>
+  <si>
+    <t>Сәрсенбай Нұргүл</t>
+  </si>
+  <si>
+    <t>7472297637</t>
+  </si>
+  <si>
+    <t>NOW Liquid D3 раствор 30 мл</t>
+  </si>
+  <si>
+    <t>SAN939632</t>
+  </si>
+  <si>
+    <t>6 285 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Чуланова, 141, 12</t>
+  </si>
+  <si>
+    <t>Сулейменова Нигара</t>
+  </si>
+  <si>
+    <t>7773776699</t>
+  </si>
+  <si>
+    <t>6 280 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Аксай-1А, 26</t>
+  </si>
+  <si>
+    <t>Malanin Aleksei</t>
+  </si>
+  <si>
+    <t>7054668974</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Назарбаева, 111, 25</t>
+  </si>
+  <si>
+    <t>Абдрахманова Асем</t>
+  </si>
+  <si>
+    <t>7001328888</t>
+  </si>
+  <si>
+    <t>Ескермесова Кундыз</t>
+  </si>
+  <si>
+    <t>7083143514</t>
+  </si>
+  <si>
+    <t>Алматы, улица Мустай Карима, 13А, 194</t>
+  </si>
+  <si>
+    <t>Қырықбаева Айдана</t>
+  </si>
+  <si>
+    <t>7029429490</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 146, 6палата педиатрия Калдыбек Акниет</t>
+  </si>
+  <si>
+    <t>Мухатай Акбота</t>
+  </si>
+  <si>
+    <t>7010660005</t>
+  </si>
+  <si>
+    <t>11 778 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Асанбая Аскарова, 21/21, Корпус 2, подъезд 3, этаж 5, кв 81b</t>
+  </si>
+  <si>
+    <t>Оралхан Жібек</t>
+  </si>
+  <si>
+    <t>7476206110</t>
+  </si>
+  <si>
+    <t>12 418 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Розыбакиева, 283/1, 55</t>
+  </si>
+  <si>
+    <t>Алифирова Ирина</t>
+  </si>
+  <si>
+    <t>7078217203</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Мамыр-4, 45</t>
+  </si>
+  <si>
+    <t>Аксёнова Юлия</t>
+  </si>
+  <si>
+    <t>7775555544</t>
+  </si>
+  <si>
+    <t>7 047 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Таужиеги, 11, 11</t>
+  </si>
+  <si>
+    <t>Назарова Мулдир</t>
+  </si>
+  <si>
+    <t>7789265690</t>
+  </si>
+  <si>
+    <t>4 749 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Саялы, 41, 10</t>
+  </si>
+  <si>
+    <t>Туртбаев Мейирбек</t>
+  </si>
+  <si>
+    <t>7025311453</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition омега жирные кислоты Omega 800 1000 mg 30 капсул</t>
+  </si>
+  <si>
+    <t>SAN9882</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Дарабоз, 19, 23</t>
+  </si>
+  <si>
+    <t>Kochurova Alena</t>
+  </si>
+  <si>
+    <t>7016454838</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 41/2, 9</t>
+  </si>
+  <si>
+    <t>Gubanova Daria</t>
+  </si>
+  <si>
+    <t>7027820446</t>
+  </si>
+  <si>
+    <t>5 749 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Абиша Кекилбайулы, 270блок3, 226</t>
+  </si>
+  <si>
+    <t>Асыл Балнұр</t>
+  </si>
+  <si>
+    <t>7781046049</t>
+  </si>
+  <si>
+    <t>17 883 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ади Шарипова, 145к3, 33</t>
+  </si>
+  <si>
+    <t>Абуева Молдир</t>
+  </si>
+  <si>
+    <t>7472585386</t>
+  </si>
+  <si>
+    <t>Алматы, улица Бакира Тажибаева, 9</t>
+  </si>
+  <si>
+    <t>Романова Елизавета</t>
+  </si>
+  <si>
+    <t>7072595822</t>
+  </si>
+  <si>
+    <t>6 877 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Саялы-2, улица Акбулак, 134</t>
+  </si>
+  <si>
+    <t>Нусипбаева Эльвира</t>
+  </si>
+  <si>
+    <t>7075362915</t>
+  </si>
+  <si>
+    <t>4 857 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Алмерека, 82</t>
+  </si>
+  <si>
+    <t>Нұрқияс Нұрболат</t>
+  </si>
+  <si>
+    <t>7471919288</t>
+  </si>
+  <si>
+    <t>9 397 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Акбулак, улица Нурмаханова, 43, В 2гис аханова 32/8</t>
+  </si>
+  <si>
+    <t>Ибрагим Нуркен</t>
+  </si>
+  <si>
+    <t>7757309540</t>
+  </si>
+  <si>
+    <t>7 352 ₸</t>
+  </si>
+  <si>
+    <t>Туғанбай Алтынай</t>
+  </si>
+  <si>
+    <t>7059772995</t>
+  </si>
+  <si>
+    <t>4 614 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Аксай-1А, 7, 4 этаж 31 квартира</t>
+  </si>
+  <si>
+    <t>Krekhaleva Natalia</t>
+  </si>
+  <si>
+    <t>7473696882</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Аксай-1А, 26Б, 11</t>
+  </si>
+  <si>
+    <t>Швейда Анна</t>
+  </si>
+  <si>
+    <t>7766226258</t>
+  </si>
+  <si>
+    <t>Алматы, улица Жубанова, 3А, 1</t>
+  </si>
+  <si>
+    <t>Дюсембаева Гульнар</t>
+  </si>
+  <si>
+    <t>7072162688</t>
+  </si>
+  <si>
+    <t>Garden of Life минерально-витаминный комплексVitamin Code Prenetal 90 капсул</t>
+  </si>
+  <si>
+    <t>SAN93971027</t>
+  </si>
+  <si>
+    <t>28 887 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, 1-й микрорайон, 32, 4</t>
+  </si>
+  <si>
+    <t>Арделян-компанеец Надежда</t>
+  </si>
+  <si>
+    <t>7753372232</t>
+  </si>
+  <si>
+    <t>9 568 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Тажибаевой, 157/2, 52</t>
+  </si>
+  <si>
+    <t>Крупина Елена</t>
+  </si>
+  <si>
+    <t>7027190203</t>
+  </si>
+  <si>
+    <t>7 800 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Восточная улица, 16/2</t>
   </si>
 </sst>
 </file>
@@ -5350,7 +7717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H424"/>
+  <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16387,6 +18754,5284 @@
         <v>62</v>
       </c>
     </row>
+    <row r="425" spans="1:8">
+      <c r="A425" s="2">
+        <v>244871543</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E425" t="s">
+        <v>11</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H425" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="2">
+        <v>244871025</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E426" t="s">
+        <v>11</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H426" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="2">
+        <v>244866411</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D427" t="s">
+        <v>29</v>
+      </c>
+      <c r="E427" t="s">
+        <v>11</v>
+      </c>
+      <c r="F427" t="s">
+        <v>30</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H427" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="2">
+        <v>244865879</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D428" t="s">
+        <v>464</v>
+      </c>
+      <c r="E428" t="s">
+        <v>11</v>
+      </c>
+      <c r="F428" t="s">
+        <v>465</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H428" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="2">
+        <v>244863043</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E429" t="s">
+        <v>11</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H429" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="2">
+        <v>242346789</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D430" t="s">
+        <v>361</v>
+      </c>
+      <c r="E430" t="s">
+        <v>11</v>
+      </c>
+      <c r="F430" t="s">
+        <v>362</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H430" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="2">
+        <v>242268383</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D431" t="s">
+        <v>537</v>
+      </c>
+      <c r="E431" t="s">
+        <v>11</v>
+      </c>
+      <c r="F431" t="s">
+        <v>538</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H431" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="2">
+        <v>242272164</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D432" t="s">
+        <v>485</v>
+      </c>
+      <c r="E432" t="s">
+        <v>11</v>
+      </c>
+      <c r="F432" t="s">
+        <v>486</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H432" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="2">
+        <v>242243417</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D433" t="s">
+        <v>454</v>
+      </c>
+      <c r="E433" t="s">
+        <v>11</v>
+      </c>
+      <c r="F433" t="s">
+        <v>455</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H433" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="2">
+        <v>242304027</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D434" t="s">
+        <v>502</v>
+      </c>
+      <c r="E434" t="s">
+        <v>11</v>
+      </c>
+      <c r="F434" t="s">
+        <v>503</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H434" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="2">
+        <v>242202663</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D435" t="s">
+        <v>70</v>
+      </c>
+      <c r="E435" t="s">
+        <v>11</v>
+      </c>
+      <c r="F435" t="s">
+        <v>71</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H435" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="2">
+        <v>242285315</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D436" t="s">
+        <v>454</v>
+      </c>
+      <c r="E436" t="s">
+        <v>11</v>
+      </c>
+      <c r="F436" t="s">
+        <v>455</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H436" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="2">
+        <v>242301619</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D437" t="s">
+        <v>29</v>
+      </c>
+      <c r="E437" t="s">
+        <v>11</v>
+      </c>
+      <c r="F437" t="s">
+        <v>30</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H437" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="2">
+        <v>242347088</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D438" t="s">
+        <v>124</v>
+      </c>
+      <c r="E438" t="s">
+        <v>11</v>
+      </c>
+      <c r="F438" t="s">
+        <v>125</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H438" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="2">
+        <v>242171328</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D439" t="s">
+        <v>29</v>
+      </c>
+      <c r="E439" t="s">
+        <v>11</v>
+      </c>
+      <c r="F439" t="s">
+        <v>30</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H439" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="2">
+        <v>242207647</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D440" t="s">
+        <v>29</v>
+      </c>
+      <c r="E440" t="s">
+        <v>11</v>
+      </c>
+      <c r="F440" t="s">
+        <v>30</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H440" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="2">
+        <v>242199576</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E441" t="s">
+        <v>11</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H441" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="2">
+        <v>242327063</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D442" t="s">
+        <v>768</v>
+      </c>
+      <c r="E442" t="s">
+        <v>11</v>
+      </c>
+      <c r="F442" t="s">
+        <v>769</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H442" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="2">
+        <v>242235264</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D443" t="s">
+        <v>147</v>
+      </c>
+      <c r="E443" t="s">
+        <v>11</v>
+      </c>
+      <c r="F443" t="s">
+        <v>148</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H443" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" s="2">
+        <v>242325559</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D444" t="s">
+        <v>47</v>
+      </c>
+      <c r="E444" t="s">
+        <v>11</v>
+      </c>
+      <c r="F444" t="s">
+        <v>49</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H444" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" s="2">
+        <v>242156466</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D445" t="s">
+        <v>162</v>
+      </c>
+      <c r="E445" t="s">
+        <v>11</v>
+      </c>
+      <c r="F445" t="s">
+        <v>163</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H445" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="2">
+        <v>242218100</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D446" t="s">
+        <v>418</v>
+      </c>
+      <c r="E446" t="s">
+        <v>11</v>
+      </c>
+      <c r="F446" t="s">
+        <v>419</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H446" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="2">
+        <v>242338988</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D447" t="s">
+        <v>444</v>
+      </c>
+      <c r="E447" t="s">
+        <v>11</v>
+      </c>
+      <c r="F447" t="s">
+        <v>445</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H447" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="2">
+        <v>242335224</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D448" t="s">
+        <v>537</v>
+      </c>
+      <c r="E448" t="s">
+        <v>11</v>
+      </c>
+      <c r="F448" t="s">
+        <v>538</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H448" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="2">
+        <v>242325939</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D449" t="s">
+        <v>65</v>
+      </c>
+      <c r="E449" t="s">
+        <v>11</v>
+      </c>
+      <c r="F449" t="s">
+        <v>66</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H449" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="2">
+        <v>242175907</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D450" t="s">
+        <v>65</v>
+      </c>
+      <c r="E450" t="s">
+        <v>11</v>
+      </c>
+      <c r="F450" t="s">
+        <v>66</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H450" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" s="2">
+        <v>242184896</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E451" t="s">
+        <v>11</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H451" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="2">
+        <v>242330389</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D452" t="s">
+        <v>87</v>
+      </c>
+      <c r="E452" t="s">
+        <v>11</v>
+      </c>
+      <c r="F452" t="s">
+        <v>88</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H452" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" s="2">
+        <v>242233282</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D453" t="s">
+        <v>454</v>
+      </c>
+      <c r="E453" t="s">
+        <v>11</v>
+      </c>
+      <c r="F453" t="s">
+        <v>455</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H453" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="2">
+        <v>242280628</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E454" t="s">
+        <v>11</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H454" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" s="2">
+        <v>242177688</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E455" t="s">
+        <v>11</v>
+      </c>
+      <c r="F455" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H455" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" s="2">
+        <v>242333062</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E456" t="s">
+        <v>11</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H456" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="2">
+        <v>242250505</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D457" t="s">
+        <v>70</v>
+      </c>
+      <c r="E457" t="s">
+        <v>11</v>
+      </c>
+      <c r="F457" t="s">
+        <v>71</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H457" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="2">
+        <v>242314436</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D458" t="s">
+        <v>454</v>
+      </c>
+      <c r="E458" t="s">
+        <v>11</v>
+      </c>
+      <c r="F458" t="s">
+        <v>455</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H458" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="2">
+        <v>242227752</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D459" t="s">
+        <v>696</v>
+      </c>
+      <c r="E459" t="s">
+        <v>11</v>
+      </c>
+      <c r="F459" t="s">
+        <v>697</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="H459" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="2">
+        <v>242270413</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D460" t="s">
+        <v>23</v>
+      </c>
+      <c r="E460" t="s">
+        <v>11</v>
+      </c>
+      <c r="F460" t="s">
+        <v>24</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H460" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" s="2">
+        <v>242304114</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D461" t="s">
+        <v>522</v>
+      </c>
+      <c r="E461" t="s">
+        <v>11</v>
+      </c>
+      <c r="F461" t="s">
+        <v>523</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H461" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" s="2">
+        <v>242343015</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D462" t="s">
+        <v>706</v>
+      </c>
+      <c r="E462" t="s">
+        <v>11</v>
+      </c>
+      <c r="F462" t="s">
+        <v>707</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H462" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463" s="2">
+        <v>242317440</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D463" t="s">
+        <v>170</v>
+      </c>
+      <c r="E463" t="s">
+        <v>11</v>
+      </c>
+      <c r="F463" t="s">
+        <v>171</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H463" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464" s="2">
+        <v>242061120</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D464" t="s">
+        <v>65</v>
+      </c>
+      <c r="E464" t="s">
+        <v>59</v>
+      </c>
+      <c r="F464" t="s">
+        <v>66</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H464" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="2">
+        <v>242298740</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E465" t="s">
+        <v>11</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H465" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" s="2">
+        <v>242287053</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D466" t="s">
+        <v>537</v>
+      </c>
+      <c r="E466" t="s">
+        <v>11</v>
+      </c>
+      <c r="F466" t="s">
+        <v>538</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H466" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="2">
+        <v>242286389</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D467" t="s">
+        <v>502</v>
+      </c>
+      <c r="E467" t="s">
+        <v>11</v>
+      </c>
+      <c r="F467" t="s">
+        <v>503</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H467" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="2">
+        <v>242218307</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E468" t="s">
+        <v>11</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H468" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="2">
+        <v>242336653</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E469" t="s">
+        <v>11</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H469" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="2">
+        <v>241851837</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D470" t="s">
+        <v>29</v>
+      </c>
+      <c r="E470" t="s">
+        <v>11</v>
+      </c>
+      <c r="F470" t="s">
+        <v>30</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H470" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="2">
+        <v>242186274</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E471" t="s">
+        <v>11</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H471" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="2">
+        <v>242255332</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D472" t="s">
+        <v>162</v>
+      </c>
+      <c r="E472" t="s">
+        <v>11</v>
+      </c>
+      <c r="F472" t="s">
+        <v>163</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H472" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" s="2">
+        <v>242227828</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D473" t="s">
+        <v>65</v>
+      </c>
+      <c r="E473" t="s">
+        <v>11</v>
+      </c>
+      <c r="F473" t="s">
+        <v>66</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H473" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="2">
+        <v>242307709</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C474" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E474" t="s">
+        <v>11</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H474" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="2">
+        <v>242180381</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D475" t="s">
+        <v>47</v>
+      </c>
+      <c r="E475" t="s">
+        <v>11</v>
+      </c>
+      <c r="F475" t="s">
+        <v>49</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H475" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" s="2">
+        <v>242316385</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E476" t="s">
+        <v>11</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H476" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" s="2">
+        <v>242122799</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D477" t="s">
+        <v>70</v>
+      </c>
+      <c r="E477" t="s">
+        <v>11</v>
+      </c>
+      <c r="F477" t="s">
+        <v>71</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H477" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" s="2">
+        <v>242105758</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D478" t="s">
+        <v>147</v>
+      </c>
+      <c r="E478" t="s">
+        <v>11</v>
+      </c>
+      <c r="F478" t="s">
+        <v>148</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H478" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" s="2">
+        <v>242121466</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D479" t="s">
+        <v>392</v>
+      </c>
+      <c r="E479" t="s">
+        <v>11</v>
+      </c>
+      <c r="F479" t="s">
+        <v>393</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H479" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" s="2">
+        <v>242063515</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D480" t="s">
+        <v>147</v>
+      </c>
+      <c r="E480" t="s">
+        <v>11</v>
+      </c>
+      <c r="F480" t="s">
+        <v>148</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H480" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" s="2">
+        <v>242070710</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D481" t="s">
+        <v>70</v>
+      </c>
+      <c r="E481" t="s">
+        <v>11</v>
+      </c>
+      <c r="F481" t="s">
+        <v>71</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H481" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" s="2">
+        <v>242082333</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E482" t="s">
+        <v>11</v>
+      </c>
+      <c r="F482" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H482" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="2">
+        <v>242016141</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E483" t="s">
+        <v>11</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H483" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="2">
+        <v>242146099</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E484" t="s">
+        <v>11</v>
+      </c>
+      <c r="F484" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H484" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="2">
+        <v>242146182</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D485" t="s">
+        <v>418</v>
+      </c>
+      <c r="E485" t="s">
+        <v>11</v>
+      </c>
+      <c r="F485" t="s">
+        <v>419</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H485" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="2">
+        <v>242146066</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E486" t="s">
+        <v>11</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H486" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="2">
+        <v>242093555</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D487" t="s">
+        <v>47</v>
+      </c>
+      <c r="E487" t="s">
+        <v>11</v>
+      </c>
+      <c r="F487" t="s">
+        <v>49</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H487" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="2">
+        <v>242086200</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D488" t="s">
+        <v>112</v>
+      </c>
+      <c r="E488" t="s">
+        <v>11</v>
+      </c>
+      <c r="F488" t="s">
+        <v>113</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H488" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="2">
+        <v>242190410</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D489" t="s">
+        <v>502</v>
+      </c>
+      <c r="E489" t="s">
+        <v>11</v>
+      </c>
+      <c r="F489" t="s">
+        <v>503</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H489" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="2">
+        <v>242148792</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D490" t="s">
+        <v>87</v>
+      </c>
+      <c r="E490" t="s">
+        <v>11</v>
+      </c>
+      <c r="F490" t="s">
+        <v>88</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="2">
+        <v>242019646</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D491" t="s">
+        <v>550</v>
+      </c>
+      <c r="E491" t="s">
+        <v>11</v>
+      </c>
+      <c r="F491" t="s">
+        <v>551</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="2">
+        <v>242094372</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E492" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="2">
+        <v>242123422</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E493" t="s">
+        <v>11</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H493" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="2">
+        <v>242091605</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D494" t="s">
+        <v>124</v>
+      </c>
+      <c r="E494" t="s">
+        <v>11</v>
+      </c>
+      <c r="F494" t="s">
+        <v>125</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H494" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="2">
+        <v>242147101</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D495" t="s">
+        <v>29</v>
+      </c>
+      <c r="E495" t="s">
+        <v>11</v>
+      </c>
+      <c r="F495" t="s">
+        <v>30</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H495" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="2">
+        <v>242132976</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D496" t="s">
+        <v>502</v>
+      </c>
+      <c r="E496" t="s">
+        <v>11</v>
+      </c>
+      <c r="F496" t="s">
+        <v>503</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="2">
+        <v>242077405</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D497" t="s">
+        <v>157</v>
+      </c>
+      <c r="E497" t="s">
+        <v>11</v>
+      </c>
+      <c r="F497" t="s">
+        <v>158</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H497" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>242055645</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D498" t="s">
+        <v>418</v>
+      </c>
+      <c r="E498" t="s">
+        <v>11</v>
+      </c>
+      <c r="F498" t="s">
+        <v>419</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H498" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>241832538</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E499" t="s">
+        <v>11</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H499" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="2">
+        <v>241898673</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D500" t="s">
+        <v>29</v>
+      </c>
+      <c r="E500" t="s">
+        <v>11</v>
+      </c>
+      <c r="F500" t="s">
+        <v>30</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H500" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="2">
+        <v>241818968</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E501" t="s">
+        <v>11</v>
+      </c>
+      <c r="F501" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H501" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" s="2">
+        <v>242116345</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D502" t="s">
+        <v>47</v>
+      </c>
+      <c r="E502" t="s">
+        <v>11</v>
+      </c>
+      <c r="F502" t="s">
+        <v>49</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H502" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" s="2">
+        <v>241932202</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E503" t="s">
+        <v>11</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H503" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" s="2">
+        <v>241936360</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D504" t="s">
+        <v>162</v>
+      </c>
+      <c r="E504" t="s">
+        <v>11</v>
+      </c>
+      <c r="F504" t="s">
+        <v>163</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H504" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" s="2">
+        <v>241849319</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E505" t="s">
+        <v>11</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H505" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" s="2">
+        <v>241892634</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D506" t="s">
+        <v>768</v>
+      </c>
+      <c r="E506" t="s">
+        <v>11</v>
+      </c>
+      <c r="F506" t="s">
+        <v>769</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H506" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" s="2">
+        <v>241945422</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D507" t="s">
+        <v>65</v>
+      </c>
+      <c r="E507" t="s">
+        <v>11</v>
+      </c>
+      <c r="F507" t="s">
+        <v>66</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H507" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508" s="2">
+        <v>241847354</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E508" t="s">
+        <v>11</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" s="2">
+        <v>241952484</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D509" t="s">
+        <v>320</v>
+      </c>
+      <c r="E509" t="s">
+        <v>11</v>
+      </c>
+      <c r="F509" t="s">
+        <v>321</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H509" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="2">
+        <v>241865641</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E510" t="s">
+        <v>11</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H510" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="2">
+        <v>241804773</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E511" t="s">
+        <v>11</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="2">
+        <v>241709887</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D512" t="s">
+        <v>130</v>
+      </c>
+      <c r="E512" t="s">
+        <v>11</v>
+      </c>
+      <c r="F512" t="s">
+        <v>131</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="2">
+        <v>241773311</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D513" t="s">
+        <v>320</v>
+      </c>
+      <c r="E513" t="s">
+        <v>11</v>
+      </c>
+      <c r="F513" t="s">
+        <v>321</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="2">
+        <v>241878928</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E514" t="s">
+        <v>11</v>
+      </c>
+      <c r="F514" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>2001</v>
+      </c>
+      <c r="H514" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" s="2">
+        <v>241902270</v>
+      </c>
+      <c r="B515" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C515" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D515" t="s">
+        <v>162</v>
+      </c>
+      <c r="E515" t="s">
+        <v>11</v>
+      </c>
+      <c r="F515" t="s">
+        <v>163</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H515" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" s="2">
+        <v>241508485</v>
+      </c>
+      <c r="B516" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E516" t="s">
+        <v>11</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H516" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517" s="2">
+        <v>241447935</v>
+      </c>
+      <c r="B517" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C517" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D517" t="s">
+        <v>130</v>
+      </c>
+      <c r="E517" t="s">
+        <v>11</v>
+      </c>
+      <c r="F517" t="s">
+        <v>131</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H517" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" s="2">
+        <v>241807900</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C518" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D518" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E518" t="s">
+        <v>11</v>
+      </c>
+      <c r="F518" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H518" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" s="2">
+        <v>241678756</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C519" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D519" t="s">
+        <v>464</v>
+      </c>
+      <c r="E519" t="s">
+        <v>11</v>
+      </c>
+      <c r="F519" t="s">
+        <v>465</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H519" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" s="2">
+        <v>241578199</v>
+      </c>
+      <c r="B520" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C520" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D520" t="s">
+        <v>762</v>
+      </c>
+      <c r="E520" t="s">
+        <v>11</v>
+      </c>
+      <c r="F520" t="s">
+        <v>763</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H520" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" s="2">
+        <v>241628762</v>
+      </c>
+      <c r="B521" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D521" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E521" t="s">
+        <v>11</v>
+      </c>
+      <c r="F521" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H521" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" s="2">
+        <v>241648150</v>
+      </c>
+      <c r="B522" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E522" t="s">
+        <v>11</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H522" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" s="2">
+        <v>241640663</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E523" t="s">
+        <v>11</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H523" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" s="2">
+        <v>241699959</v>
+      </c>
+      <c r="B524" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D524" t="s">
+        <v>522</v>
+      </c>
+      <c r="E524" t="s">
+        <v>11</v>
+      </c>
+      <c r="F524" t="s">
+        <v>523</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H524" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" s="2">
+        <v>241578109</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E525" t="s">
+        <v>11</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H525" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" s="2">
+        <v>241571146</v>
+      </c>
+      <c r="B526" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C526" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E526" t="s">
+        <v>11</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H526" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" s="2">
+        <v>241562467</v>
+      </c>
+      <c r="B527" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C527" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D527" t="s">
+        <v>320</v>
+      </c>
+      <c r="E527" t="s">
+        <v>11</v>
+      </c>
+      <c r="F527" t="s">
+        <v>321</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H527" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="2">
+        <v>241543169</v>
+      </c>
+      <c r="B528" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C528" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D528" t="s">
+        <v>23</v>
+      </c>
+      <c r="E528" t="s">
+        <v>11</v>
+      </c>
+      <c r="F528" t="s">
+        <v>24</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H528" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" s="2">
+        <v>241638459</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E529" t="s">
+        <v>11</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H529" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530" s="2">
+        <v>241558104</v>
+      </c>
+      <c r="B530" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D530" t="s">
+        <v>768</v>
+      </c>
+      <c r="E530" t="s">
+        <v>11</v>
+      </c>
+      <c r="F530" t="s">
+        <v>769</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H530" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" s="2">
+        <v>241689656</v>
+      </c>
+      <c r="B531" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D531" t="s">
+        <v>92</v>
+      </c>
+      <c r="E531" t="s">
+        <v>11</v>
+      </c>
+      <c r="F531" t="s">
+        <v>93</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H531" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="2">
+        <v>241654460</v>
+      </c>
+      <c r="B532" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C532" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E532" t="s">
+        <v>11</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H532" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="2">
+        <v>241571319</v>
+      </c>
+      <c r="B533" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D533" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E533" t="s">
+        <v>11</v>
+      </c>
+      <c r="F533" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H533" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="2">
+        <v>241640457</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E534" t="s">
+        <v>11</v>
+      </c>
+      <c r="F534" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H534" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="2">
+        <v>241530898</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C535" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D535" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E535" t="s">
+        <v>11</v>
+      </c>
+      <c r="F535" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H535" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="2">
+        <v>241325986</v>
+      </c>
+      <c r="B536" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C536" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D536" t="s">
+        <v>92</v>
+      </c>
+      <c r="E536" t="s">
+        <v>11</v>
+      </c>
+      <c r="F536" t="s">
+        <v>93</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H536" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="2">
+        <v>241460139</v>
+      </c>
+      <c r="B537" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C537" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D537" t="s">
+        <v>320</v>
+      </c>
+      <c r="E537" t="s">
+        <v>11</v>
+      </c>
+      <c r="F537" t="s">
+        <v>321</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H537" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="2">
+        <v>241123895</v>
+      </c>
+      <c r="B538" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C538" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D538" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E538" t="s">
+        <v>59</v>
+      </c>
+      <c r="F538" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H538" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="2">
+        <v>241454202</v>
+      </c>
+      <c r="B539" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C539" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D539" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E539" t="s">
+        <v>11</v>
+      </c>
+      <c r="F539" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="H539" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="2">
+        <v>241463670</v>
+      </c>
+      <c r="B540" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D540" t="s">
+        <v>873</v>
+      </c>
+      <c r="E540" t="s">
+        <v>11</v>
+      </c>
+      <c r="F540" t="s">
+        <v>874</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H540" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="2">
+        <v>241329851</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D541" t="s">
+        <v>65</v>
+      </c>
+      <c r="E541" t="s">
+        <v>11</v>
+      </c>
+      <c r="F541" t="s">
+        <v>66</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="H541" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="2">
+        <v>241474708</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C542" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D542" t="s">
+        <v>23</v>
+      </c>
+      <c r="E542" t="s">
+        <v>11</v>
+      </c>
+      <c r="F542" t="s">
+        <v>24</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H542" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="2">
+        <v>241502472</v>
+      </c>
+      <c r="B543" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C543" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E543" t="s">
+        <v>11</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H543" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="2">
+        <v>241378033</v>
+      </c>
+      <c r="B544" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D544" t="s">
+        <v>130</v>
+      </c>
+      <c r="E544" t="s">
+        <v>11</v>
+      </c>
+      <c r="F544" t="s">
+        <v>131</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H544" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="2">
+        <v>241341093</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D545" t="s">
+        <v>65</v>
+      </c>
+      <c r="E545" t="s">
+        <v>11</v>
+      </c>
+      <c r="F545" t="s">
+        <v>66</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="H545" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="2">
+        <v>241443159</v>
+      </c>
+      <c r="B546" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D546" t="s">
+        <v>320</v>
+      </c>
+      <c r="E546" t="s">
+        <v>11</v>
+      </c>
+      <c r="F546" t="s">
+        <v>321</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H546" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="2">
+        <v>241415436</v>
+      </c>
+      <c r="B547" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D547" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E547" t="s">
+        <v>11</v>
+      </c>
+      <c r="F547" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H547" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="2">
+        <v>241466832</v>
+      </c>
+      <c r="B548" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D548" t="s">
+        <v>349</v>
+      </c>
+      <c r="E548" t="s">
+        <v>11</v>
+      </c>
+      <c r="F548" t="s">
+        <v>350</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H548" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="2">
+        <v>241492260</v>
+      </c>
+      <c r="B549" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D549" t="s">
+        <v>92</v>
+      </c>
+      <c r="E549" t="s">
+        <v>11</v>
+      </c>
+      <c r="F549" t="s">
+        <v>93</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H549" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="2">
+        <v>241407461</v>
+      </c>
+      <c r="B550" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D550" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E550" t="s">
+        <v>11</v>
+      </c>
+      <c r="F550" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H550" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="2">
+        <v>241382474</v>
+      </c>
+      <c r="B551" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D551" t="s">
+        <v>464</v>
+      </c>
+      <c r="E551" t="s">
+        <v>11</v>
+      </c>
+      <c r="F551" t="s">
+        <v>465</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H551" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="2">
+        <v>241268605</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C552" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D552" t="s">
+        <v>206</v>
+      </c>
+      <c r="E552" t="s">
+        <v>11</v>
+      </c>
+      <c r="F552" t="s">
+        <v>207</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H552" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="2">
+        <v>241196013</v>
+      </c>
+      <c r="B553" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D553" t="s">
+        <v>29</v>
+      </c>
+      <c r="E553" t="s">
+        <v>11</v>
+      </c>
+      <c r="F553" t="s">
+        <v>30</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H553" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="2">
+        <v>241224299</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D554" t="s">
+        <v>130</v>
+      </c>
+      <c r="E554" t="s">
+        <v>11</v>
+      </c>
+      <c r="F554" t="s">
+        <v>131</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H554" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="2">
+        <v>241278159</v>
+      </c>
+      <c r="B555" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C555" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D555" t="s">
+        <v>320</v>
+      </c>
+      <c r="E555" t="s">
+        <v>11</v>
+      </c>
+      <c r="F555" t="s">
+        <v>321</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H555" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="2">
+        <v>241276737</v>
+      </c>
+      <c r="B556" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C556" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D556" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E556" t="s">
+        <v>11</v>
+      </c>
+      <c r="F556" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H556" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="2">
+        <v>241200065</v>
+      </c>
+      <c r="B557" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C557" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D557" t="s">
+        <v>355</v>
+      </c>
+      <c r="E557" t="s">
+        <v>11</v>
+      </c>
+      <c r="F557" t="s">
+        <v>356</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H557" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="2">
+        <v>241135628</v>
+      </c>
+      <c r="B558" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D558" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E558" t="s">
+        <v>11</v>
+      </c>
+      <c r="F558" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H558" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="2">
+        <v>241272875</v>
+      </c>
+      <c r="B559" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D559" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E559" t="s">
+        <v>11</v>
+      </c>
+      <c r="F559" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H559" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="2">
+        <v>241172918</v>
+      </c>
+      <c r="B560" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D560" t="s">
+        <v>383</v>
+      </c>
+      <c r="E560" t="s">
+        <v>11</v>
+      </c>
+      <c r="F560" t="s">
+        <v>384</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H560" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" s="2">
+        <v>241098788</v>
+      </c>
+      <c r="B561" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C561" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D561" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E561" t="s">
+        <v>11</v>
+      </c>
+      <c r="F561" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H561" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" s="2">
+        <v>241138624</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D562" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E562" t="s">
+        <v>11</v>
+      </c>
+      <c r="F562" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H562" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="2">
+        <v>241112465</v>
+      </c>
+      <c r="B563" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E563" t="s">
+        <v>11</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H563" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="2">
+        <v>241224668</v>
+      </c>
+      <c r="B564" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D564" t="s">
+        <v>272</v>
+      </c>
+      <c r="E564" t="s">
+        <v>11</v>
+      </c>
+      <c r="F564" t="s">
+        <v>273</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H564" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="2">
+        <v>241292904</v>
+      </c>
+      <c r="B565" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C565" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D565" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E565" t="s">
+        <v>11</v>
+      </c>
+      <c r="F565" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="H565" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="2">
+        <v>241234767</v>
+      </c>
+      <c r="B566" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C566" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D566" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E566" t="s">
+        <v>11</v>
+      </c>
+      <c r="F566" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H566" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="2">
+        <v>241272715</v>
+      </c>
+      <c r="B567" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D567" t="s">
+        <v>65</v>
+      </c>
+      <c r="E567" t="s">
+        <v>11</v>
+      </c>
+      <c r="F567" t="s">
+        <v>66</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="H567" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="2">
+        <v>241128391</v>
+      </c>
+      <c r="B568" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D568" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E568" t="s">
+        <v>11</v>
+      </c>
+      <c r="F568" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H568" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="2">
+        <v>241137356</v>
+      </c>
+      <c r="B569" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D569" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E569" t="s">
+        <v>11</v>
+      </c>
+      <c r="F569" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H569" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="2">
+        <v>241153320</v>
+      </c>
+      <c r="B570" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D570" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E570" t="s">
+        <v>11</v>
+      </c>
+      <c r="F570" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H570" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="2">
+        <v>241131544</v>
+      </c>
+      <c r="B571" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D571" t="s">
+        <v>65</v>
+      </c>
+      <c r="E571" t="s">
+        <v>11</v>
+      </c>
+      <c r="F571" t="s">
+        <v>66</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H571" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="2">
+        <v>241123863</v>
+      </c>
+      <c r="B572" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D572" t="s">
+        <v>185</v>
+      </c>
+      <c r="E572" t="s">
+        <v>11</v>
+      </c>
+      <c r="F572" t="s">
+        <v>186</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H572" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="2">
+        <v>241039939</v>
+      </c>
+      <c r="B573" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D573" t="s">
+        <v>768</v>
+      </c>
+      <c r="E573" t="s">
+        <v>11</v>
+      </c>
+      <c r="F573" t="s">
+        <v>769</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="H573" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="2">
+        <v>241284185</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E574" t="s">
+        <v>11</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H574" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" s="2">
+        <v>241283348</v>
+      </c>
+      <c r="B575" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E575" t="s">
+        <v>11</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="H575" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" s="2">
+        <v>241161285</v>
+      </c>
+      <c r="B576" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C576" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D576" t="s">
+        <v>65</v>
+      </c>
+      <c r="E576" t="s">
+        <v>11</v>
+      </c>
+      <c r="F576" t="s">
+        <v>66</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H576" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="2">
+        <v>241232837</v>
+      </c>
+      <c r="B577" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E577" t="s">
+        <v>11</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H577" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="2">
+        <v>241161890</v>
+      </c>
+      <c r="B578" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D578" t="s">
+        <v>550</v>
+      </c>
+      <c r="E578" t="s">
+        <v>11</v>
+      </c>
+      <c r="F578" t="s">
+        <v>551</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H578" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" s="2">
+        <v>241269484</v>
+      </c>
+      <c r="B579" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C579" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D579" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E579" t="s">
+        <v>11</v>
+      </c>
+      <c r="F579" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="H579" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" s="2">
+        <v>241148851</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D580" t="s">
+        <v>92</v>
+      </c>
+      <c r="E580" t="s">
+        <v>11</v>
+      </c>
+      <c r="F580" t="s">
+        <v>93</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H580" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" s="2">
+        <v>240847340</v>
+      </c>
+      <c r="B581" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D581" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E581" t="s">
+        <v>11</v>
+      </c>
+      <c r="F581" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H581" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" s="2">
+        <v>241270270</v>
+      </c>
+      <c r="B582" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D582" t="s">
+        <v>92</v>
+      </c>
+      <c r="E582" t="s">
+        <v>11</v>
+      </c>
+      <c r="F582" t="s">
+        <v>93</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H582" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" s="2">
+        <v>241264952</v>
+      </c>
+      <c r="B583" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C583" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D583" t="s">
+        <v>320</v>
+      </c>
+      <c r="E583" t="s">
+        <v>11</v>
+      </c>
+      <c r="F583" t="s">
+        <v>321</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H583" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" s="2">
+        <v>240993330</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D584" t="s">
+        <v>35</v>
+      </c>
+      <c r="E584" t="s">
+        <v>11</v>
+      </c>
+      <c r="F584" t="s">
+        <v>36</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="H584" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="2">
+        <v>241018678</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D585" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E585" t="s">
+        <v>11</v>
+      </c>
+      <c r="F585" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H585" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="2">
+        <v>241080542</v>
+      </c>
+      <c r="B586" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C586" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D586" t="s">
+        <v>320</v>
+      </c>
+      <c r="E586" t="s">
+        <v>11</v>
+      </c>
+      <c r="F586" t="s">
+        <v>321</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H586" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="2">
+        <v>241058264</v>
+      </c>
+      <c r="B587" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C587" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D587" t="s">
+        <v>139</v>
+      </c>
+      <c r="E587" t="s">
+        <v>11</v>
+      </c>
+      <c r="F587" t="s">
+        <v>140</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H587" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="2">
+        <v>240858797</v>
+      </c>
+      <c r="B588" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C588" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D588" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E588" t="s">
+        <v>11</v>
+      </c>
+      <c r="F588" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H588" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="2">
+        <v>240893452</v>
+      </c>
+      <c r="B589" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C589" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D589" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E589" t="s">
+        <v>11</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H589" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="2">
+        <v>241054301</v>
+      </c>
+      <c r="B590" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C590" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D590" t="s">
+        <v>272</v>
+      </c>
+      <c r="E590" t="s">
+        <v>11</v>
+      </c>
+      <c r="F590" t="s">
+        <v>273</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H590" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="2">
+        <v>240911380</v>
+      </c>
+      <c r="B591" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C591" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E591" t="s">
+        <v>11</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H591" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="2">
+        <v>240853967</v>
+      </c>
+      <c r="B592" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C592" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D592" t="s">
+        <v>185</v>
+      </c>
+      <c r="E592" t="s">
+        <v>11</v>
+      </c>
+      <c r="F592" t="s">
+        <v>186</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H592" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="2">
+        <v>240914723</v>
+      </c>
+      <c r="B593" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C593" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E593" t="s">
+        <v>11</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H593" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="2">
+        <v>241014383</v>
+      </c>
+      <c r="B594" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D594" t="s">
+        <v>92</v>
+      </c>
+      <c r="E594" t="s">
+        <v>11</v>
+      </c>
+      <c r="F594" t="s">
+        <v>93</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H594" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="2">
+        <v>241103319</v>
+      </c>
+      <c r="B595" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C595" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D595" t="s">
+        <v>242</v>
+      </c>
+      <c r="E595" t="s">
+        <v>11</v>
+      </c>
+      <c r="F595" t="s">
+        <v>243</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H595" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="2">
+        <v>240922287</v>
+      </c>
+      <c r="B596" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C596" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E596" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H596" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="2">
+        <v>240939826</v>
+      </c>
+      <c r="B597" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C597" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D597" t="s">
+        <v>242</v>
+      </c>
+      <c r="E597" t="s">
+        <v>11</v>
+      </c>
+      <c r="F597" t="s">
+        <v>243</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H597" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" s="2">
+        <v>240926443</v>
+      </c>
+      <c r="B598" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C598" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D598" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E598" t="s">
+        <v>11</v>
+      </c>
+      <c r="F598" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H598" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="2">
+        <v>240942226</v>
+      </c>
+      <c r="B599" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C599" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E599" t="s">
+        <v>11</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H599" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" s="2">
+        <v>241069574</v>
+      </c>
+      <c r="B600" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C600" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D600" t="s">
+        <v>320</v>
+      </c>
+      <c r="E600" t="s">
+        <v>11</v>
+      </c>
+      <c r="F600" t="s">
+        <v>321</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H600" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="2">
+        <v>240982918</v>
+      </c>
+      <c r="B601" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C601" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D601" t="s">
+        <v>361</v>
+      </c>
+      <c r="E601" t="s">
+        <v>11</v>
+      </c>
+      <c r="F601" t="s">
+        <v>362</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H601" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="2">
+        <v>241006073</v>
+      </c>
+      <c r="B602" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C602" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D602" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E602" t="s">
+        <v>11</v>
+      </c>
+      <c r="F602" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H602" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="2">
+        <v>241051540</v>
+      </c>
+      <c r="B603" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C603" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D603" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E603" t="s">
+        <v>11</v>
+      </c>
+      <c r="F603" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="H603" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="2">
+        <v>241059249</v>
+      </c>
+      <c r="B604" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D604" t="s">
+        <v>550</v>
+      </c>
+      <c r="E604" t="s">
+        <v>11</v>
+      </c>
+      <c r="F604" t="s">
+        <v>551</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H604" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="2">
+        <v>241066109</v>
+      </c>
+      <c r="B605" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C605" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D605" t="s">
+        <v>550</v>
+      </c>
+      <c r="E605" t="s">
+        <v>11</v>
+      </c>
+      <c r="F605" t="s">
+        <v>551</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="2">
+        <v>241040640</v>
+      </c>
+      <c r="B606" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C606" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D606" t="s">
+        <v>65</v>
+      </c>
+      <c r="E606" t="s">
+        <v>11</v>
+      </c>
+      <c r="F606" t="s">
+        <v>66</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H606" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="2">
+        <v>241110946</v>
+      </c>
+      <c r="B607" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D607" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E607" t="s">
+        <v>11</v>
+      </c>
+      <c r="F607" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H607" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="2">
+        <v>241083943</v>
+      </c>
+      <c r="B608" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C608" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D608" t="s">
+        <v>383</v>
+      </c>
+      <c r="E608" t="s">
+        <v>11</v>
+      </c>
+      <c r="F608" t="s">
+        <v>384</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H608" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="2">
+        <v>241091895</v>
+      </c>
+      <c r="B609" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C609" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D609" t="s">
+        <v>124</v>
+      </c>
+      <c r="E609" t="s">
+        <v>11</v>
+      </c>
+      <c r="F609" t="s">
+        <v>125</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H609" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="2">
+        <v>241101266</v>
+      </c>
+      <c r="B610" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C610" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D610" t="s">
+        <v>139</v>
+      </c>
+      <c r="E610" t="s">
+        <v>11</v>
+      </c>
+      <c r="F610" t="s">
+        <v>140</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H610" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="2">
+        <v>240900726</v>
+      </c>
+      <c r="B611" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C611" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D611" t="s">
+        <v>139</v>
+      </c>
+      <c r="E611" t="s">
+        <v>11</v>
+      </c>
+      <c r="F611" t="s">
+        <v>140</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H611" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="2">
+        <v>240975352</v>
+      </c>
+      <c r="B612" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C612" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D612" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E612" t="s">
+        <v>11</v>
+      </c>
+      <c r="F612" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H612" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="2">
+        <v>240904528</v>
+      </c>
+      <c r="B613" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C613" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D613" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E613" t="s">
+        <v>11</v>
+      </c>
+      <c r="F613" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H613" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="2">
+        <v>240988566</v>
+      </c>
+      <c r="B614" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C614" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D614" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E614" t="s">
+        <v>11</v>
+      </c>
+      <c r="F614" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H614" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="2">
+        <v>240882419</v>
+      </c>
+      <c r="B615" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C615" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D615" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E615" t="s">
+        <v>11</v>
+      </c>
+      <c r="F615" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H615" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="2">
+        <v>241071429</v>
+      </c>
+      <c r="B616" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C616" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E616" t="s">
+        <v>11</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H616" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="2">
+        <v>240950597</v>
+      </c>
+      <c r="B617" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C617" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D617" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E617" t="s">
+        <v>11</v>
+      </c>
+      <c r="F617" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H617" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="2">
+        <v>240884676</v>
+      </c>
+      <c r="B618" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D618" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E618" t="s">
+        <v>11</v>
+      </c>
+      <c r="F618" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H618" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" s="2">
+        <v>240922399</v>
+      </c>
+      <c r="B619" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C619" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E619" t="s">
+        <v>11</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H619" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" s="2">
+        <v>240812060</v>
+      </c>
+      <c r="B620" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C620" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D620" t="s">
+        <v>320</v>
+      </c>
+      <c r="E620" t="s">
+        <v>11</v>
+      </c>
+      <c r="F620" t="s">
+        <v>321</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>2414</v>
+      </c>
+      <c r="H620" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="2">
+        <v>240648837</v>
+      </c>
+      <c r="B621" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C621" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D621" t="s">
+        <v>147</v>
+      </c>
+      <c r="E621" t="s">
+        <v>59</v>
+      </c>
+      <c r="F621" t="s">
+        <v>148</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="H621" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="2">
+        <v>240849746</v>
+      </c>
+      <c r="B622" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E622" t="s">
+        <v>11</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="H622" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="2">
+        <v>240836810</v>
+      </c>
+      <c r="B623" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C623" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E623" t="s">
+        <v>11</v>
+      </c>
+      <c r="F623" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H623" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" s="2">
+        <v>240954181</v>
+      </c>
+      <c r="B624" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D624" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E624" t="s">
+        <v>11</v>
+      </c>
+      <c r="F624" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H624" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="2">
+        <v>240924737</v>
+      </c>
+      <c r="B625" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C625" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D625" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E625" t="s">
+        <v>11</v>
+      </c>
+      <c r="F625" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="H625" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" s="2">
+        <v>240905454</v>
+      </c>
+      <c r="B626" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C626" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D626" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E626" t="s">
+        <v>11</v>
+      </c>
+      <c r="F626" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>2437</v>
+      </c>
+      <c r="H626" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627" s="2">
+        <v>240796051</v>
+      </c>
+      <c r="B627" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D627" t="s">
+        <v>485</v>
+      </c>
+      <c r="E627" t="s">
+        <v>11</v>
+      </c>
+      <c r="F627" t="s">
+        <v>486</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="H627" t="s">
+        <v>2442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_user.xlsx
+++ b/info_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="2443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="2593">
   <si>
     <t>id_order</t>
   </si>
@@ -7343,6 +7343,456 @@
   </si>
   <si>
     <t>Алматы, Восточная улица, 16/2</t>
+  </si>
+  <si>
+    <t>Александров Даниил</t>
+  </si>
+  <si>
+    <t>7772949597</t>
+  </si>
+  <si>
+    <t>8 689 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Гагарина, 277/7, Подъезд 7, 4 этаж, кв. 346</t>
+  </si>
+  <si>
+    <t>Продан Диана</t>
+  </si>
+  <si>
+    <t>7014347001</t>
+  </si>
+  <si>
+    <t>Алматы, 9-й микрорайон, 19, 28</t>
+  </si>
+  <si>
+    <t>Кутымбекова Жазира</t>
+  </si>
+  <si>
+    <t>7015646551</t>
+  </si>
+  <si>
+    <t>5 250 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Улжан-1, улица Балкудык, 27, Балкудык 27</t>
+  </si>
+  <si>
+    <t>Шабанова Минара</t>
+  </si>
+  <si>
+    <t>7478822792</t>
+  </si>
+  <si>
+    <t>7 239 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Карасу, 6-я улица, 94, 4</t>
+  </si>
+  <si>
+    <t>Галстян Ануш</t>
+  </si>
+  <si>
+    <t>7011008287</t>
+  </si>
+  <si>
+    <t>5 953 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Карасу, Центральная улица, 129</t>
+  </si>
+  <si>
+    <t>Рахматулла Әсемай</t>
+  </si>
+  <si>
+    <t>7059157259</t>
+  </si>
+  <si>
+    <t>3 745 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Улжан-1, улица Екпенды, 15</t>
+  </si>
+  <si>
+    <t>Рысбаева Алтыншаш</t>
+  </si>
+  <si>
+    <t>7479971850</t>
+  </si>
+  <si>
+    <t>4 554 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Улжан-1, улица Кадыргали Жалаири, 13/5, 13/5</t>
+  </si>
+  <si>
+    <t>Унгарбаева Данагуль</t>
+  </si>
+  <si>
+    <t>7056936642</t>
+  </si>
+  <si>
+    <t>4 045 ₸</t>
+  </si>
+  <si>
+    <t>Садырбаева Алмагул</t>
+  </si>
+  <si>
+    <t>7478393549</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Витамин D3 50 мкг 2000 МЕ 90 капсул</t>
+  </si>
+  <si>
+    <t>SAN9880</t>
+  </si>
+  <si>
+    <t>1 668 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Утемисова, 100</t>
+  </si>
+  <si>
+    <t>Русина Аида</t>
+  </si>
+  <si>
+    <t>7752601734</t>
+  </si>
+  <si>
+    <t>7 451 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Майлина, 69, 12</t>
+  </si>
+  <si>
+    <t>Онгарбаева Замира</t>
+  </si>
+  <si>
+    <t>7475929972</t>
+  </si>
+  <si>
+    <t>5 490 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Шаймерденова, 72</t>
+  </si>
+  <si>
+    <t>Қуанбай Жасмин</t>
+  </si>
+  <si>
+    <t>7087358328</t>
+  </si>
+  <si>
+    <t>NOW Liquid Vitamin D-3 масло 30 мл</t>
+  </si>
+  <si>
+    <t>104387713_4725004</t>
+  </si>
+  <si>
+    <t>6 478 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Тлеуберды Сауранбаева, 14/4, 11</t>
+  </si>
+  <si>
+    <t>Guliev Zamir</t>
+  </si>
+  <si>
+    <t>7076769685</t>
+  </si>
+  <si>
+    <t>3 314 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Кайрат, улица Сарыарка, 1/2, 38</t>
+  </si>
+  <si>
+    <t>Малышева Нонна</t>
+  </si>
+  <si>
+    <t>7784058711</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Зердели, 1/156, 30</t>
+  </si>
+  <si>
+    <t>Биримкулова Томирис</t>
+  </si>
+  <si>
+    <t>7078358173</t>
+  </si>
+  <si>
+    <t>3 336 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Омарова, 49Г</t>
+  </si>
+  <si>
+    <t>Ибрагимова Ая</t>
+  </si>
+  <si>
+    <t>7018886256</t>
+  </si>
+  <si>
+    <t>8 896 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Кок-Тобе, улица Сагадата Нурмагамбетова, 25, 25</t>
+  </si>
+  <si>
+    <t>Шамсан Лола</t>
+  </si>
+  <si>
+    <t>7717899444</t>
+  </si>
+  <si>
+    <t>8 866 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Барибаева, 43, КВ 27, подъезд 9</t>
+  </si>
+  <si>
+    <t>Абдрахманова Дания</t>
+  </si>
+  <si>
+    <t>7776699314</t>
+  </si>
+  <si>
+    <t>2 745 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Бузурбаева, 4Бблок1, Кв 45, 9 этаж</t>
+  </si>
+  <si>
+    <t>Бойко Владислав</t>
+  </si>
+  <si>
+    <t>7078080852</t>
+  </si>
+  <si>
+    <t>1 666 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Саина, 4, 2</t>
+  </si>
+  <si>
+    <t>Кенжебек Естай</t>
+  </si>
+  <si>
+    <t>7073487431</t>
+  </si>
+  <si>
+    <t>NOW Vitamin D-3 &amp; K-2 1000МЕ 45 мкг 120 капсул</t>
+  </si>
+  <si>
+    <t>SAN939628</t>
+  </si>
+  <si>
+    <t>12 562 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 19к2Б</t>
+  </si>
+  <si>
+    <t>Базилжан Ержан</t>
+  </si>
+  <si>
+    <t>7475831890</t>
+  </si>
+  <si>
+    <t>10 899 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Аль-Фараби, 71/14, 504А позвоните заранее предупредите о доставке</t>
+  </si>
+  <si>
+    <t>Жабагиева Молдир</t>
+  </si>
+  <si>
+    <t>7055559887</t>
+  </si>
+  <si>
+    <t>Алматы, улица Толе Би, 99, 1 этаж</t>
+  </si>
+  <si>
+    <t>Korolev Fedor</t>
+  </si>
+  <si>
+    <t>7051880138</t>
+  </si>
+  <si>
+    <t>4 900 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Спартака, 10, 12</t>
+  </si>
+  <si>
+    <t>Саитова Лаура</t>
+  </si>
+  <si>
+    <t>7016390388</t>
+  </si>
+  <si>
+    <t>6 407 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Абая, 164/8, 90 кВ 15этаж 5корпус</t>
+  </si>
+  <si>
+    <t>Abdurashitova Elzara</t>
+  </si>
+  <si>
+    <t>7004001059</t>
+  </si>
+  <si>
+    <t>California Gold Nutrition Omega-3 Premium Fish Oil капсулы 100 шт</t>
+  </si>
+  <si>
+    <t>SAN25</t>
+  </si>
+  <si>
+    <t>3 549 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Орбита-4, 11, 13 подъезд 4 этаж 204 квартира</t>
+  </si>
+  <si>
+    <t>Алмасов Әділет</t>
+  </si>
+  <si>
+    <t>7078120971</t>
+  </si>
+  <si>
+    <t>11 786 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, жилой комплекс Аспан сити, 1140к2</t>
+  </si>
+  <si>
+    <t>Кошекбаева Динара</t>
+  </si>
+  <si>
+    <t>7477096912</t>
+  </si>
+  <si>
+    <t>11 222 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, микрорайон Алтай-1, 20, 37</t>
+  </si>
+  <si>
+    <t>Бисерик Наргиз</t>
+  </si>
+  <si>
+    <t>7058952242</t>
+  </si>
+  <si>
+    <t>3 079 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Сакена Сейфуллина, 51/11, 78</t>
+  </si>
+  <si>
+    <t>Белова Анна</t>
+  </si>
+  <si>
+    <t>7710062727</t>
+  </si>
+  <si>
+    <t>4 549 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Ауэзова, 167, 28</t>
+  </si>
+  <si>
+    <t>Тютенова Алия</t>
+  </si>
+  <si>
+    <t>7077317797</t>
+  </si>
+  <si>
+    <t>6 416 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, проспект Райымбека, 481/1, 271</t>
+  </si>
+  <si>
+    <t>Исабаева Малика</t>
+  </si>
+  <si>
+    <t>7078289888</t>
+  </si>
+  <si>
+    <t>21 911 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Богенбай Батыра, 79, 12 этаж, 62 квартира</t>
+  </si>
+  <si>
+    <t>Lazarev Vitalii</t>
+  </si>
+  <si>
+    <t>7056727026</t>
+  </si>
+  <si>
+    <t>Алматы, улица Папанина, 118</t>
+  </si>
+  <si>
+    <t>Калкабаева Анжелика</t>
+  </si>
+  <si>
+    <t>7075705052</t>
+  </si>
+  <si>
+    <t>20 265 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Еспаева, 13</t>
+  </si>
+  <si>
+    <t>Айтмұханбетова Айгерім</t>
+  </si>
+  <si>
+    <t>7781929897</t>
+  </si>
+  <si>
+    <t>7 098 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, улица Касыма Шарипова, 116Б</t>
+  </si>
+  <si>
+    <t>Цой Александр</t>
+  </si>
+  <si>
+    <t>7059933555</t>
+  </si>
+  <si>
+    <t>5 562 ₸</t>
+  </si>
+  <si>
+    <t>Алматы, Луговая улица, 5</t>
+  </si>
+  <si>
+    <t>Шабарова Гульдаурен</t>
+  </si>
+  <si>
+    <t>7012768339</t>
+  </si>
+  <si>
+    <t>12 980 ₸</t>
+  </si>
+  <si>
+    <t>Нуров Куаныш</t>
+  </si>
+  <si>
+    <t>7002833044</t>
+  </si>
+  <si>
+    <t>Үмүтбаева Аяжан</t>
+  </si>
+  <si>
+    <t>7086034362</t>
   </si>
 </sst>
 </file>
@@ -7717,7 +8167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H627"/>
+  <dimension ref="A1:H665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24032,6 +24482,994 @@
         <v>2442</v>
       </c>
     </row>
+    <row r="628" spans="1:8">
+      <c r="A628" s="2">
+        <v>244879672</v>
+      </c>
+      <c r="B628" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C628" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D628" t="s">
+        <v>87</v>
+      </c>
+      <c r="E628" t="s">
+        <v>11</v>
+      </c>
+      <c r="F628" t="s">
+        <v>88</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H628" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629" s="2">
+        <v>244887226</v>
+      </c>
+      <c r="B629" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C629" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D629" t="s">
+        <v>87</v>
+      </c>
+      <c r="E629" t="s">
+        <v>11</v>
+      </c>
+      <c r="F629" t="s">
+        <v>88</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H629" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630" s="2">
+        <v>244885278</v>
+      </c>
+      <c r="B630" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C630" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D630" t="s">
+        <v>485</v>
+      </c>
+      <c r="E630" t="s">
+        <v>11</v>
+      </c>
+      <c r="F630" t="s">
+        <v>486</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>2452</v>
+      </c>
+      <c r="H630" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" s="2">
+        <v>244880288</v>
+      </c>
+      <c r="B631" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C631" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D631" t="s">
+        <v>47</v>
+      </c>
+      <c r="E631" t="s">
+        <v>11</v>
+      </c>
+      <c r="F631" t="s">
+        <v>49</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H631" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" s="2">
+        <v>231975764</v>
+      </c>
+      <c r="B632" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D632" t="s">
+        <v>65</v>
+      </c>
+      <c r="E632" t="s">
+        <v>11</v>
+      </c>
+      <c r="F632" t="s">
+        <v>66</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H632" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" s="2">
+        <v>232038014</v>
+      </c>
+      <c r="B633" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C633" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D633" t="s">
+        <v>130</v>
+      </c>
+      <c r="E633" t="s">
+        <v>11</v>
+      </c>
+      <c r="F633" t="s">
+        <v>131</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H633" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" s="2">
+        <v>232046625</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D634" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E634" t="s">
+        <v>11</v>
+      </c>
+      <c r="F634" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H634" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" s="2">
+        <v>231504556</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C635" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D635" t="s">
+        <v>485</v>
+      </c>
+      <c r="E635" t="s">
+        <v>59</v>
+      </c>
+      <c r="F635" t="s">
+        <v>486</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H635" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" s="2">
+        <v>231972315</v>
+      </c>
+      <c r="B636" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C636" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D636" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E636" t="s">
+        <v>11</v>
+      </c>
+      <c r="F636" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H636" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637" s="2">
+        <v>232033423</v>
+      </c>
+      <c r="B637" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D637" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E637" t="s">
+        <v>11</v>
+      </c>
+      <c r="F637" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H637" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" s="2">
+        <v>232059006</v>
+      </c>
+      <c r="B638" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C638" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D638" t="s">
+        <v>130</v>
+      </c>
+      <c r="E638" t="s">
+        <v>11</v>
+      </c>
+      <c r="F638" t="s">
+        <v>131</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H638" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="2">
+        <v>231965521</v>
+      </c>
+      <c r="B639" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C639" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D639" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E639" t="s">
+        <v>11</v>
+      </c>
+      <c r="F639" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H639" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" s="2">
+        <v>231991417</v>
+      </c>
+      <c r="B640" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C640" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D640" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E640" t="s">
+        <v>11</v>
+      </c>
+      <c r="F640" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>2495</v>
+      </c>
+      <c r="H640" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" s="2">
+        <v>231953123</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D641" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E641" t="s">
+        <v>11</v>
+      </c>
+      <c r="F641" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H641" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" s="2">
+        <v>231989836</v>
+      </c>
+      <c r="B642" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C642" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D642" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E642" t="s">
+        <v>11</v>
+      </c>
+      <c r="F642" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H642" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" s="2">
+        <v>232009393</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C643" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D643" t="s">
+        <v>87</v>
+      </c>
+      <c r="E643" t="s">
+        <v>11</v>
+      </c>
+      <c r="F643" t="s">
+        <v>88</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H643" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" s="2">
+        <v>232053902</v>
+      </c>
+      <c r="B644" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C644" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D644" t="s">
+        <v>559</v>
+      </c>
+      <c r="E644" t="s">
+        <v>11</v>
+      </c>
+      <c r="F644" t="s">
+        <v>560</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H644" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="2">
+        <v>232000436</v>
+      </c>
+      <c r="B645" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D645" t="s">
+        <v>130</v>
+      </c>
+      <c r="E645" t="s">
+        <v>11</v>
+      </c>
+      <c r="F645" t="s">
+        <v>131</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>2514</v>
+      </c>
+      <c r="H645" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646" s="2">
+        <v>232051758</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C646" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D646" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E646" t="s">
+        <v>11</v>
+      </c>
+      <c r="F646" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>2518</v>
+      </c>
+      <c r="H646" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" s="2">
+        <v>232021687</v>
+      </c>
+      <c r="B647" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C647" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D647" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E647" t="s">
+        <v>11</v>
+      </c>
+      <c r="F647" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H647" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" s="2">
+        <v>227045691</v>
+      </c>
+      <c r="B648" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C648" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D648" t="s">
+        <v>190</v>
+      </c>
+      <c r="E648" t="s">
+        <v>11</v>
+      </c>
+      <c r="F648" t="s">
+        <v>191</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="H648" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649" s="2">
+        <v>226891447</v>
+      </c>
+      <c r="B649" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C649" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E649" t="s">
+        <v>11</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H649" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" s="2">
+        <v>226914928</v>
+      </c>
+      <c r="B650" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E650" t="s">
+        <v>11</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="H650" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" s="2">
+        <v>226819387</v>
+      </c>
+      <c r="B651" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C651" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D651" t="s">
+        <v>106</v>
+      </c>
+      <c r="E651" t="s">
+        <v>11</v>
+      </c>
+      <c r="F651" t="s">
+        <v>107</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H651" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" s="2">
+        <v>226782461</v>
+      </c>
+      <c r="B652" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E652" t="s">
+        <v>11</v>
+      </c>
+      <c r="F652" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H652" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653" s="2">
+        <v>226919794</v>
+      </c>
+      <c r="B653" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D653" t="s">
+        <v>185</v>
+      </c>
+      <c r="E653" t="s">
+        <v>11</v>
+      </c>
+      <c r="F653" t="s">
+        <v>186</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H653" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" s="2">
+        <v>226777296</v>
+      </c>
+      <c r="B654" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E654" t="s">
+        <v>11</v>
+      </c>
+      <c r="F654" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H654" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655" s="2">
+        <v>226777890</v>
+      </c>
+      <c r="B655" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D655" t="s">
+        <v>130</v>
+      </c>
+      <c r="E655" t="s">
+        <v>11</v>
+      </c>
+      <c r="F655" t="s">
+        <v>131</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H655" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" s="2">
+        <v>226838476</v>
+      </c>
+      <c r="B656" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D656" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E656" t="s">
+        <v>11</v>
+      </c>
+      <c r="F656" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="H656" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" s="2">
+        <v>226792714</v>
+      </c>
+      <c r="B657" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C657" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D657" t="s">
+        <v>106</v>
+      </c>
+      <c r="E657" t="s">
+        <v>11</v>
+      </c>
+      <c r="F657" t="s">
+        <v>107</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H657" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" s="2">
+        <v>226820725</v>
+      </c>
+      <c r="B658" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C658" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E658" t="s">
+        <v>11</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="H658" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="A659" s="2">
+        <v>226847208</v>
+      </c>
+      <c r="B659" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C659" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D659" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E659" t="s">
+        <v>11</v>
+      </c>
+      <c r="F659" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H659" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660" s="2">
+        <v>226828815</v>
+      </c>
+      <c r="B660" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C660" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D660" t="s">
+        <v>383</v>
+      </c>
+      <c r="E660" t="s">
+        <v>11</v>
+      </c>
+      <c r="F660" t="s">
+        <v>384</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="H660" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661" s="2">
+        <v>226776663</v>
+      </c>
+      <c r="B661" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D661" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E661" t="s">
+        <v>11</v>
+      </c>
+      <c r="F661" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H661" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662" s="2">
+        <v>226825711</v>
+      </c>
+      <c r="B662" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E662" t="s">
+        <v>11</v>
+      </c>
+      <c r="F662" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>2584</v>
+      </c>
+      <c r="H662" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663" s="2">
+        <v>244901870</v>
+      </c>
+      <c r="B663" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E663" t="s">
+        <v>59</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H663" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664" s="2">
+        <v>244580249</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D664" t="s">
+        <v>392</v>
+      </c>
+      <c r="E664" t="s">
+        <v>59</v>
+      </c>
+      <c r="F664" t="s">
+        <v>393</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H664" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" s="2">
+        <v>244495478</v>
+      </c>
+      <c r="B665" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D665" t="s">
+        <v>65</v>
+      </c>
+      <c r="E665" t="s">
+        <v>59</v>
+      </c>
+      <c r="F665" t="s">
+        <v>66</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H665" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
